--- a/Results table.xlsx
+++ b/Results table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3073ee5e3651c0a/WUR/Master/Thesis/GitHub/Thesis_Bas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E567D605-ADDF-4BDD-86E2-65E9FBC3091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{E567D605-ADDF-4BDD-86E2-65E9FBC3091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5AFFED-B6E2-4827-AEB4-5EFE0417C85B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0953A28C-A6F3-4687-96C4-26032C96141B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0953A28C-A6F3-4687-96C4-26032C96141B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>MSFT</t>
   </si>
@@ -88,24 +88,21 @@
   <si>
     <t xml:space="preserve">MSFT </t>
   </si>
+  <si>
+    <t>VTI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,549 +1652,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>BIDU</a:t>
+              <a:t>VTI</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$X$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Predict</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$W$2:$W$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$X$2:$X$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.4041076623729699E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.3843105665885006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.11579736016158999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.23013626412802601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.31491319404682</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.37130426253347498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8DA8-4364-9C3F-B64994EC0676}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$W$2:$W$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.13823553700414201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18677894607891399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19203875712181601</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26517819456476599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21415856950057499</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23000896100475801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8DA8-4364-9C3F-B64994EC0676}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$X$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Predict</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$W$2:$W$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$X$2:$X$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.4041076623729699E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.3843105665885006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.11579736016158999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.23013626412802601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.31491319404682</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.37130426253347498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8DA8-4364-9C3F-B64994EC0676}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$W$2:$W$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.13823553700414201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18677894607891399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19203875712181601</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26517819456476599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21415856950057499</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23000896100475801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8DA8-4364-9C3F-B64994EC0676}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="986336592"/>
-        <c:axId val="986337072"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="986336592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986337072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="986337072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986336592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2308,22 +1764,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.91983171064242E-3</c:v>
+                  <c:v>6.1592943440243204E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.4533363444854094E-2</c:v>
+                  <c:v>-5.9981349990541603E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.9920446766610804E-2</c:v>
+                  <c:v>-8.43192992256796E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.150671121185283</c:v>
+                  <c:v>-0.13644605062597401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.21041816934805199</c:v>
+                  <c:v>-0.198702148876719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.25296948841615702</c:v>
+                  <c:v>-0.24095902350704501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,22 +1863,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1228177226873099E-2</c:v>
+                  <c:v>2.9372162170314998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.11811932957043E-4</c:v>
+                  <c:v>-7.0259834048135399E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9545527188474002E-3</c:v>
+                  <c:v>-4.6672069102005904E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0352618061700498E-2</c:v>
+                  <c:v>7.7840332417282703E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.22294193211046E-2</c:v>
+                  <c:v>-2.19688889551947E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5339086562876501E-2</c:v>
+                  <c:v>-3.4205901015354402E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,6 +2022,2036 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="979341600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>BIDU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.4041076623729699E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.3843105665885006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11579736016158999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.23013626412802601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.31491319404682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.37130426253347498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FE9-470D-82F1-3754BDDF8533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13823553700414201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18677894607891399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19203875712181601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26517819456476599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21415856950057499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23000896100475801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FE9-470D-82F1-3754BDDF8533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1634062863"/>
+        <c:axId val="1634072463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1634062863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634072463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1634072463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634062863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9308345516230679E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4421551511897046E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7874999485458206E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1710237392469835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19818875002694739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23763040185328052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AAD-47E3-BF77-A56204CE298B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSFT </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8254040343367303E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5886965629975897E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2416597634873939E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1696678528581346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19977640499678379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23987102679676195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AAD-47E3-BF77-A56204CE298B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$30:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3656988524614795E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0106257429448801E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.884031849901553E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13512388225150707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16676639177789421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21665418143856408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1AAD-47E3-BF77-A56204CE298B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$30:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.881645518958355E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3297513394426398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6133450347480102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1380720020920175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1983374298946641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27946717558375661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1AAD-47E3-BF77-A56204CE298B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIDU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$30:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13183142934176903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26062205174479902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30783611728340599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.495314458692792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52907176354739494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60131322353823302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1AAD-47E3-BF77-A56204CE298B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1712757711"/>
+        <c:axId val="1712755791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1712757711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712755791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1712755791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712757711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RMS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$W$30:$W$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$30:$X$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4699534724151199E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2253613767160901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0277503872742301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0635163744365E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.023333767201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.02277072414738E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BC6-4BE5-92DA-665C10604D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$W$30:$W$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$30:$Y$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.23333082465765E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.12262255630663E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0784515707793599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27492838718757E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25880441400072E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.26275243644847E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BC6-4BE5-92DA-665C10604D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$W$30:$W$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$30:$Z$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.15233691222112E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.15208763786351E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2156463907706701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2056288737931801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3164101317403899E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43501733349208E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7BC6-4BE5-92DA-665C10604D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIDU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$W$30:$W$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$30:$AA$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0919823235610999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9688426261210603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0977297242459E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1207540726657901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9201494451930101E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8915444415642902E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7BC6-4BE5-92DA-665C10604D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$W$30:$W$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>[-1, 1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-3, 3]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-5, 5]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-10, 10]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-10, 15]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10, 20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$30:$AB$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.7559447014856498E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6025329214971203E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2799960954171503E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9034099203564301E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8355801471664396E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7346218779545898E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7BC6-4BE5-92DA-665C10604D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1634046063"/>
+        <c:axId val="1634071023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1634046063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634071023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1634071023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634046063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2812,6 +4298,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4361,6 +5967,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4988,42 +8142,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4648C337-B30F-91DD-A816-F9D552184D60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -5052,7 +8170,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274543</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B5DE37-FF98-AF71-25DB-1AD016C9889B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>588308</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>15689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2A4327-B592-5DF3-C4B3-661555E3D549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>341779</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FA15F2-B3CD-090A-2A9E-85435FDF5E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5358,13 +8584,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EF49BA-8DFE-4B06-86AD-61F76BD2A00E}">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5380,7 +8609,7 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -5395,7 +8624,7 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q1" t="s">
         <v>11</v>
@@ -5410,7 +8639,7 @@
         <v>9</v>
       </c>
       <c r="U1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W1" t="s">
         <v>12</v>
@@ -5425,10 +8654,10 @@
         <v>9</v>
       </c>
       <c r="AA1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE1" t="s">
         <v>7</v>
@@ -5440,7 +8669,7 @@
         <v>9</v>
       </c>
       <c r="AH1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -5461,8 +8690,7 @@
         <v>3.8254040343367303E-2</v>
       </c>
       <c r="F2">
-        <f>E2^2</f>
-        <v>1.4633716025919733E-3</v>
+        <v>1.4699534724151199E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5478,8 +8706,7 @@
         <v>3.3656988524614795E-2</v>
       </c>
       <c r="M2">
-        <f>L2^2</f>
-        <v>1.132792876546052E-3</v>
+        <v>1.23333082465765E-2</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -5495,8 +8722,7 @@
         <v>1.881645518958355E-2</v>
       </c>
       <c r="U2">
-        <f>T2^2</f>
-        <v>3.5405898590160572E-4</v>
+        <v>1.15233691222112E-2</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -5512,25 +8738,23 @@
         <v>0.13183142934176903</v>
       </c>
       <c r="AA2">
-        <f>Z2^2</f>
-        <v>1.7379525762293839E-2</v>
+        <v>5.0919823235610999E-2</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AE2" s="1">
-        <v>1.91983171064242E-3</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>3.1228177226873099E-2</v>
+      <c r="AE2">
+        <v>6.1592943440243204E-3</v>
+      </c>
+      <c r="AF2">
+        <v>2.9372162170314998E-2</v>
       </c>
       <c r="AG2">
         <f>AF2-AE2</f>
-        <v>2.9308345516230679E-2</v>
+        <v>2.321286782629068E-2</v>
       </c>
       <c r="AH2">
-        <f>AG2^2</f>
-        <v>8.5897911689875896E-4</v>
+        <v>7.7559447014856498E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -5551,8 +8775,7 @@
         <v>6.5886965629975897E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="2">E3^2</f>
-        <v>4.3410922399256249E-3</v>
+        <v>1.2253613767160901E-2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -5568,8 +8791,7 @@
         <v>7.0106257429448801E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M7" si="3">L3^2</f>
-        <v>4.914887330764145E-3</v>
+        <v>1.12262255630663E-2</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -5581,12 +8803,11 @@
         <v>-4.8700201340955498E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T7" si="4">S3-R3</f>
+        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
         <v>1.3297513394426398E-2</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U7" si="5">T3^2</f>
-        <v>1.7682386247494948E-4</v>
+        <v>1.15208763786351E-2</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -5598,29 +8819,27 @@
         <v>0.18677894607891399</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="6">Y3-X3</f>
+        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
         <v>0.26062205174479902</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA7" si="7">Z3^2</f>
-        <v>6.7923853855668695E-2</v>
+        <v>4.9688426261210603E-2</v>
       </c>
       <c r="AD3">
         <v>2</v>
       </c>
-      <c r="AE3" s="1">
-        <v>-6.4533363444854094E-2</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>-1.11811932957043E-4</v>
+      <c r="AE3">
+        <v>-5.9981349990541603E-2</v>
+      </c>
+      <c r="AF3">
+        <v>-7.0259834048135399E-3</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG7" si="8">AF3-AE3</f>
-        <v>6.4421551511897046E-2</v>
+        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
+        <v>5.2955366585728067E-2</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" si="9">AG3^2</f>
-        <v>4.1501362992000046E-3</v>
+        <v>7.6025329214971203E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -5641,8 +8860,7 @@
         <v>8.2416597634873939E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>6.792495565708709E-3</v>
+        <v>1.0277503872742301E-2</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -5658,8 +8876,7 @@
         <v>7.884031849901553E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
-        <v>6.2157958210262102E-3</v>
+        <v>1.0784515707793599E-2</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -5671,12 +8888,11 @@
         <v>-3.8268314295786698E-2</v>
       </c>
       <c r="T4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.6133450347480102E-2</v>
       </c>
       <c r="U4">
-        <f t="shared" si="5"/>
-        <v>3.1509642479130139E-3</v>
+        <v>1.2156463907706701E-2</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -5688,29 +8904,27 @@
         <v>0.19203875712181601</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.30783611728340599</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="7"/>
-        <v>9.4763075104122879E-2</v>
+        <v>4.0977297242459E-2</v>
       </c>
       <c r="AD4">
         <v>3</v>
       </c>
-      <c r="AE4" s="1">
-        <v>-8.9920446766610804E-2</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>7.9545527188474002E-3</v>
+      <c r="AE4">
+        <v>-8.43192992256796E-2</v>
+      </c>
+      <c r="AF4">
+        <v>-4.6672069102005904E-3</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="8"/>
-        <v>9.7874999485458206E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.9652092315479012E-2</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="9"/>
-        <v>9.5795155242784438E-3</v>
+        <v>7.2799960954171503E-3</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -5731,8 +8945,7 @@
         <v>0.1696678528581346</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>2.8787180293489614E-2</v>
+        <v>1.0635163744365E-2</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -5748,8 +8961,7 @@
         <v>0.13512388225150707</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
-        <v>1.8258463554719145E-2</v>
+        <v>1.27492838718757E-2</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -5761,12 +8973,11 @@
         <v>-2.2704264223916502E-2</v>
       </c>
       <c r="T5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.1380720020920175</v>
       </c>
       <c r="U5">
-        <f t="shared" si="5"/>
-        <v>1.9063877761698086E-2</v>
+        <v>1.2056288737931801E-2</v>
       </c>
       <c r="W5">
         <v>4</v>
@@ -5778,29 +8989,27 @@
         <v>0.26517819456476599</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.495314458692792</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="7"/>
-        <v>0.24533641299013356</v>
+        <v>4.1207540726657901E-2</v>
       </c>
       <c r="AD5">
         <v>4</v>
       </c>
-      <c r="AE5" s="1">
-        <v>-0.150671121185283</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>2.0352618061700498E-2</v>
+      <c r="AE5">
+        <v>-0.13644605062597401</v>
+      </c>
+      <c r="AF5">
+        <v>7.7840332417282703E-3</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="8"/>
-        <v>0.1710237392469835</v>
+        <f t="shared" si="4"/>
+        <v>0.14423008386770228</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="9"/>
-        <v>2.9249119386020202E-2</v>
+        <v>6.9034099203564301E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -5821,8 +9030,7 @@
         <v>0.19977640499678379</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>3.9910611993438976E-2</v>
+        <v>1.023333767201E-2</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -5838,8 +9046,7 @@
         <v>0.16676639177789421</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
-        <v>2.7811029426618099E-2</v>
+        <v>1.25880441400072E-2</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -5851,12 +9058,11 @@
         <v>-1.39311647968259E-2</v>
       </c>
       <c r="T6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.1983374298946641</v>
       </c>
       <c r="U6">
-        <f t="shared" si="5"/>
-        <v>3.9337736097220799E-2</v>
+        <v>1.3164101317403899E-2</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -5868,29 +9074,27 @@
         <v>0.21415856950057499</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.52907176354739494</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="7"/>
-        <v>0.27991693098315057</v>
+        <v>3.9201494451930101E-2</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
-      <c r="AE6" s="1">
-        <v>-0.21041816934805199</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>-1.22294193211046E-2</v>
+      <c r="AE6">
+        <v>-0.198702148876719</v>
+      </c>
+      <c r="AF6">
+        <v>-2.19688889551947E-2</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="8"/>
-        <v>0.19818875002694739</v>
+        <f t="shared" si="4"/>
+        <v>0.1767332599215243</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="9"/>
-        <v>3.927878063724384E-2</v>
+        <v>6.8355801471664396E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -5911,8 +9115,7 @@
         <v>0.23987102679676195</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>5.7538109496532888E-2</v>
+        <v>1.02277072414738E-2</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -5928,8 +9131,7 @@
         <v>0.21665418143856408</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
-        <v>4.6939034334814243E-2</v>
+        <v>1.26275243644847E-2</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -5941,12 +9143,11 @@
         <v>2.4495151536361601E-2</v>
       </c>
       <c r="T7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.27946717558375661</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
-        <v>7.8101902228762246E-2</v>
+        <v>1.43501733349208E-2</v>
       </c>
       <c r="W7">
         <v>6</v>
@@ -5958,54 +9159,30 @@
         <v>0.23000896100475801</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.60131322353823302</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="7"/>
-        <v>0.36157759280194102</v>
+        <v>3.8915444415642902E-2</v>
       </c>
       <c r="AD7">
         <v>6</v>
       </c>
-      <c r="AE7" s="1">
-        <v>-0.25296948841615702</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>-1.5339086562876501E-2</v>
+      <c r="AE7">
+        <v>-0.24095902350704501</v>
+      </c>
+      <c r="AF7">
+        <v>-3.4205901015354402E-2</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="8"/>
-        <v>0.23763040185328052</v>
+        <f t="shared" si="4"/>
+        <v>0.20675312249169062</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="9"/>
-        <v>5.6468207884951584E-2</v>
+        <v>6.7346218779545898E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <f>SQRT(SUM(F2:F7)/6)</f>
-        <v>0.15211446413347626</v>
-      </c>
-      <c r="M8">
-        <f>SQRT(SUM(M2:M7)/6)</f>
-        <v>0.13245880072969096</v>
-      </c>
-      <c r="U8">
-        <f t="shared" ref="U8" si="10">SQRT(SUM(U2:U7)/6)</f>
-        <v>0.15285361362208108</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" ref="AA8" si="11">SQRT(SUM(AA2:AA7)/6)</f>
-        <v>0.42168261988872441</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" ref="AH8" si="12">SQRT(SUM(AH2:AH7)/6)</f>
-        <v>0.1525258113941117</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>15</v>
       </c>
@@ -6021,8 +9198,35 @@
       <c r="H29" t="s">
         <v>12</v>
       </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -6041,8 +9245,42 @@
       <c r="H30">
         <v>0.13183142934176903</v>
       </c>
+      <c r="J30">
+        <f>E30-$D$30</f>
+        <v>8.9456948271366236E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:M30" si="5">F30-$D$30</f>
+        <v>4.3486430083841156E-3</v>
+      </c>
+      <c r="L30">
+        <f>G30-$D$30</f>
+        <v>-1.049189032664713E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>0.10252308382553835</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1.4699534724151199E-2</v>
+      </c>
+      <c r="Y30">
+        <v>1.23333082465765E-2</v>
+      </c>
+      <c r="Z30">
+        <v>1.15233691222112E-2</v>
+      </c>
+      <c r="AA30">
+        <v>5.0919823235610999E-2</v>
+      </c>
+      <c r="AB30">
+        <v>7.7559447014856498E-3</v>
+      </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -6061,8 +9299,42 @@
       <c r="H31">
         <v>0.26062205174479902</v>
       </c>
+      <c r="J31">
+        <f>E31-$D$31</f>
+        <v>1.4654141180788505E-3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:M31" si="6">F31-$D$31</f>
+        <v>5.684705917551755E-3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>-5.1124038117470648E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>0.19620050023290198</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>1.2253613767160901E-2</v>
+      </c>
+      <c r="Y31">
+        <v>1.12262255630663E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.15208763786351E-2</v>
+      </c>
+      <c r="AA31">
+        <v>4.9688426261210603E-2</v>
+      </c>
+      <c r="AB31">
+        <v>7.6025329214971203E-3</v>
+      </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -6081,8 +9353,42 @@
       <c r="H32">
         <v>0.30783611728340599</v>
       </c>
+      <c r="J32">
+        <f>E32-$D32</f>
+        <v>-1.5458401850584266E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:M35" si="7">F32-$D32</f>
+        <v>-1.9034680986442676E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>-4.1741549137978104E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>0.20996111779794779</v>
+      </c>
+      <c r="W32" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>1.0277503872742301E-2</v>
+      </c>
+      <c r="Y32">
+        <v>1.0784515707793599E-2</v>
+      </c>
+      <c r="Z32">
+        <v>1.2156463907706701E-2</v>
+      </c>
+      <c r="AA32">
+        <v>4.0977297242459E-2</v>
+      </c>
+      <c r="AB32">
+        <v>7.2799960954171503E-3</v>
+      </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6101,8 +9407,42 @@
       <c r="H33">
         <v>0.495314458692792</v>
       </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J35" si="8">E33-$D33</f>
+        <v>-1.3558863888488981E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>-3.5899856995476431E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>-3.2951737154965993E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0.32429071944580851</v>
+      </c>
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>1.0635163744365E-2</v>
+      </c>
+      <c r="Y33">
+        <v>1.27492838718757E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.2056288737931801E-2</v>
+      </c>
+      <c r="AA33">
+        <v>4.1207540726657901E-2</v>
+      </c>
+      <c r="AB33">
+        <v>6.9034099203564301E-3</v>
+      </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>5</v>
       </c>
@@ -6121,8 +9461,42 @@
       <c r="H34">
         <v>0.52907176354739494</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>1.5876549698363995E-3</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>-3.1422358249053178E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>1.4867986771671671E-4</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0.33088301352044758</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>1.023333767201E-2</v>
+      </c>
+      <c r="Y34">
+        <v>1.25880441400072E-2</v>
+      </c>
+      <c r="Z34">
+        <v>1.3164101317403899E-2</v>
+      </c>
+      <c r="AA34">
+        <v>3.9201494451930101E-2</v>
+      </c>
+      <c r="AB34">
+        <v>6.8355801471664396E-3</v>
+      </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -6140,6 +9514,61 @@
       </c>
       <c r="H35">
         <v>0.60131322353823302</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>2.2406249434814285E-3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>-2.0976220414716445E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>4.183677373047609E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0.36368282168495247</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>1.02277072414738E-2</v>
+      </c>
+      <c r="Y35">
+        <v>1.26275243644847E-2</v>
+      </c>
+      <c r="Z35">
+        <v>1.43501733349208E-2</v>
+      </c>
+      <c r="AA35">
+        <v>3.8915444415642902E-2</v>
+      </c>
+      <c r="AB35">
+        <v>6.7346218779545898E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <f>SQRT(SUM(J30^2,J31^2,J32^2,J33^2,J34^2,J35^2)/5)</f>
+        <v>8.1303697159715183E-3</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:M36" si="9">SQRT(SUM(K30^2,K31^2,K32^2,K33^2,K34^2,K35^2)/5)</f>
+        <v>2.5018840143992783E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>3.8215857137867022E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="9"/>
+        <v>0.29664879036985292</v>
       </c>
     </row>
   </sheetData>

--- a/Results table.xlsx
+++ b/Results table.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3073ee5e3651c0a/WUR/Master/Thesis/GitHub/Thesis_Bas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="8_{E567D605-ADDF-4BDD-86E2-65E9FBC3091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6015B39B-07AD-4C7D-8D8C-AD1D46CBC776}"/>
+  <xr:revisionPtr revIDLastSave="727" documentId="8_{E567D605-ADDF-4BDD-86E2-65E9FBC3091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB043263-9D0C-4E1F-986D-0F0B562FAE3F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{0953A28C-A6F3-4687-96C4-26032C96141B}"/>
+    <workbookView xWindow="-25125" yWindow="0" windowWidth="25230" windowHeight="15195" xr2:uid="{0953A28C-A6F3-4687-96C4-26032C96141B}"/>
   </bookViews>
   <sheets>
-    <sheet name="5F_Model" sheetId="1" r:id="rId1"/>
-    <sheet name="4F_Model" sheetId="4" r:id="rId2"/>
-    <sheet name="3F_Model" sheetId="3" r:id="rId3"/>
-    <sheet name="F_Model" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="OverviewTable" sheetId="6" r:id="rId1"/>
+    <sheet name="5F_Model" sheetId="1" r:id="rId2"/>
+    <sheet name="4F_Model" sheetId="4" r:id="rId3"/>
+    <sheet name="3F_Model" sheetId="3" r:id="rId4"/>
+    <sheet name="F_Model" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="44">
   <si>
     <t>MSFT</t>
   </si>
@@ -170,6 +170,9 @@
   <si>
     <t>P-Value</t>
   </si>
+  <si>
+    <t>CAR's</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -268,9 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1913,19 +1913,19 @@
                   <c:v>6.4041076623729699E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.3843105665885006E-2</c:v>
+                  <c:v>-7.3228879999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11579736016158999</c:v>
+                  <c:v>-0.11629299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.23013626412802601</c:v>
+                  <c:v>-0.240311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.31491319404682</c:v>
+                  <c:v>-0.32656079999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.37130426253347498</c:v>
+                  <c:v>-0.3854976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,19 +2672,19 @@
                   <c:v>0.13183142934176903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26062205174479902</c:v>
+                  <c:v>0.26000782607891398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30783611728340599</c:v>
+                  <c:v>0.30833175712181599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.495314458692792</c:v>
+                  <c:v>0.50548919456476593</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52907176354739494</c:v>
+                  <c:v>0.54071936950057498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60131322353823302</c:v>
+                  <c:v>0.61550656100475798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5883,22 +5883,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.4041076623729699E-3</c:v>
+                  <c:v>3.6629089999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.3843105665885006E-2</c:v>
+                  <c:v>-7.2609019999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11579736016158999</c:v>
+                  <c:v>-0.1128021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.23013626412802601</c:v>
+                  <c:v>-0.2244775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.31491319404682</c:v>
+                  <c:v>-0.31026559999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.37130426253347498</c:v>
+                  <c:v>-0.37227120000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7133,22 +7133,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.13183142934176903</c:v>
+                  <c:v>0.13457262800414202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26062205174479902</c:v>
+                  <c:v>0.25938796607891401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30783611728340599</c:v>
+                  <c:v>0.30484085712181602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.495314458692792</c:v>
+                  <c:v>0.48965569456476599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52907176354739494</c:v>
+                  <c:v>0.52442416950057491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60131322353823302</c:v>
+                  <c:v>0.60228016100475801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10350,22 +10350,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.4041076623729699E-3</c:v>
+                  <c:v>3.349149E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.3843105665885006E-2</c:v>
+                  <c:v>-8.2429219999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11579736016158999</c:v>
+                  <c:v>-0.1110773</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.23013626412802601</c:v>
+                  <c:v>-0.18660450000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.31491319404682</c:v>
+                  <c:v>-0.26548749999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.37130426253347498</c:v>
+                  <c:v>-0.32096910000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11109,22 +11109,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.13183142934176903</c:v>
+                  <c:v>0.13488638800414202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26062205174479902</c:v>
+                  <c:v>0.26920816607891396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30783611728340599</c:v>
+                  <c:v>0.303116057121816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.495314458692792</c:v>
+                  <c:v>0.451782694564766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52907176354739494</c:v>
+                  <c:v>0.47964606950057498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60131322353823302</c:v>
+                  <c:v>0.55097806100475799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33123,3982 +33123,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EF49BA-8DFE-4B06-86AD-61F76BD2A00E}">
-  <dimension ref="A1:AH44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC5A87-F1D7-4C96-82ED-0C4ED6F957B8}">
+  <dimension ref="D1:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.3847612777483699E-2</v>
-      </c>
-      <c r="D2">
-        <v>5.2101653120851001E-2</v>
-      </c>
-      <c r="E2">
-        <f>D2-C2</f>
-        <v>3.8254040343367303E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.4699534724151199E-2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1.64955713737986E-2</v>
-      </c>
-      <c r="K2">
-        <v>5.0152559898413399E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
-        <v>3.3656988524614795E-2</v>
-      </c>
-      <c r="M2">
-        <v>1.23333082465765E-2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>-1.6465660102482699E-2</v>
-      </c>
-      <c r="S2">
-        <v>2.3507950871008501E-3</v>
-      </c>
-      <c r="T2">
-        <f>S2-R2</f>
-        <v>1.881645518958355E-2</v>
-      </c>
-      <c r="U2">
-        <v>1.15233691222112E-2</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>6.4041076623729699E-3</v>
-      </c>
-      <c r="Y2">
-        <v>0.13823553700414201</v>
-      </c>
-      <c r="Z2">
-        <f>Y2-X2</f>
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="AA2">
-        <v>5.0919823235610999E-2</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>6.1592943440243204E-3</v>
-      </c>
-      <c r="AF2">
-        <v>2.9372162170314998E-2</v>
-      </c>
-      <c r="AG2">
-        <f>AF2-AE2</f>
-        <v>2.321286782629068E-2</v>
-      </c>
-      <c r="AH2">
-        <v>7.7559447014856498E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-5.5360149293913002E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.0526816336062899E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
-        <v>6.5886965629975897E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.2253613767160901E-2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>-5.9799969781021201E-2</v>
-      </c>
-      <c r="K3">
-        <v>1.0306287648427601E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>7.0106257429448801E-2</v>
-      </c>
-      <c r="M3">
-        <v>1.12262255630663E-2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>-6.1997714735381897E-2</v>
-      </c>
-      <c r="S3">
-        <v>-4.8700201340955498E-2</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
-        <v>1.3297513394426398E-2</v>
-      </c>
-      <c r="U3">
-        <v>1.15208763786351E-2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>-7.3843105665885006E-2</v>
-      </c>
-      <c r="Y3">
-        <v>0.18677894607891399</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="AA3">
-        <v>4.9688426261210603E-2</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>-5.9981349990541603E-2</v>
-      </c>
-      <c r="AF3">
-        <v>-7.0259834048135399E-3</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
-        <v>5.2955366585728067E-2</v>
-      </c>
-      <c r="AH3">
-        <v>7.6025329214971203E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>-7.2877476437511302E-2</v>
-      </c>
-      <c r="D4">
-        <v>9.5391211973626308E-3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>8.2416597634873939E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.0277503872742301E-2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>-8.5767983756868504E-2</v>
-      </c>
-      <c r="K4">
-        <v>-6.9276652578529798E-3</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>7.884031849901553E-2</v>
-      </c>
-      <c r="M4">
-        <v>1.0784515707793599E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>-9.44017646432668E-2</v>
-      </c>
-      <c r="S4">
-        <v>-3.8268314295786698E-2</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="2"/>
-        <v>5.6133450347480102E-2</v>
-      </c>
-      <c r="U4">
-        <v>1.2156463907706701E-2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>-0.11579736016158999</v>
-      </c>
-      <c r="Y4">
-        <v>0.19203875712181601</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="3"/>
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="AA4">
-        <v>4.0977297242459E-2</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>-8.43192992256796E-2</v>
-      </c>
-      <c r="AF4">
-        <v>-4.6672069102005904E-3</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="4"/>
-        <v>7.9652092315479012E-2</v>
-      </c>
-      <c r="AH4">
-        <v>7.2799960954171503E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>-0.106812601908917</v>
-      </c>
-      <c r="D5">
-        <v>6.2855250949217595E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.1696678528581346</v>
-      </c>
-      <c r="F5">
-        <v>1.0635163744365E-2</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>-0.14172868966069099</v>
-      </c>
-      <c r="K5">
-        <v>-6.6048074091839297E-3</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.13512388225150707</v>
-      </c>
-      <c r="M5">
-        <v>1.27492838718757E-2</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>-0.160776266315934</v>
-      </c>
-      <c r="S5">
-        <v>-2.2704264223916502E-2</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="2"/>
-        <v>0.1380720020920175</v>
-      </c>
-      <c r="U5">
-        <v>1.2056288737931801E-2</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <v>-0.23013626412802601</v>
-      </c>
-      <c r="Y5">
-        <v>0.26517819456476599</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="3"/>
-        <v>0.495314458692792</v>
-      </c>
-      <c r="AA5">
-        <v>4.1207540726657901E-2</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>-0.13644605062597401</v>
-      </c>
-      <c r="AF5">
-        <v>7.7840332417282703E-3</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="4"/>
-        <v>0.14423008386770228</v>
-      </c>
-      <c r="AH5">
-        <v>6.9034099203564301E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>-0.18792396924058599</v>
-      </c>
-      <c r="D6">
-        <v>1.18524357561978E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.19977640499678379</v>
-      </c>
-      <c r="F6">
-        <v>1.023333767201E-2</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>-0.23285255712841099</v>
-      </c>
-      <c r="K6">
-        <v>-6.6086165350516798E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.16676639177789421</v>
-      </c>
-      <c r="M6">
-        <v>1.25880441400072E-2</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>-0.21226859469149001</v>
-      </c>
-      <c r="S6">
-        <v>-1.39311647968259E-2</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="2"/>
-        <v>0.1983374298946641</v>
-      </c>
-      <c r="U6">
-        <v>1.3164101317403899E-2</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-      <c r="X6">
-        <v>-0.31491319404682</v>
-      </c>
-      <c r="Y6">
-        <v>0.21415856950057499</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="3"/>
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="AA6">
-        <v>3.9201494451930101E-2</v>
-      </c>
-      <c r="AD6">
-        <v>5</v>
-      </c>
-      <c r="AE6">
-        <v>-0.198702148876719</v>
-      </c>
-      <c r="AF6">
-        <v>-2.19688889551947E-2</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="4"/>
-        <v>0.1767332599215243</v>
-      </c>
-      <c r="AH6">
-        <v>6.8355801471664396E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>-0.24210912681776101</v>
-      </c>
-      <c r="D7">
-        <v>-2.23810002099905E-3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.23987102679676195</v>
-      </c>
-      <c r="F7">
-        <v>1.02277072414738E-2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>-0.295435061905514</v>
-      </c>
-      <c r="K7">
-        <v>-7.8780880466949907E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0.21665418143856408</v>
-      </c>
-      <c r="M7">
-        <v>1.26275243644847E-2</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <v>-0.254972024047395</v>
-      </c>
-      <c r="S7">
-        <v>2.4495151536361601E-2</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>0.27946717558375661</v>
-      </c>
-      <c r="U7">
-        <v>1.43501733349208E-2</v>
-      </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>-0.37130426253347498</v>
-      </c>
-      <c r="Y7">
-        <v>0.23000896100475801</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="AA7">
-        <v>3.8915444415642902E-2</v>
-      </c>
-      <c r="AD7">
-        <v>6</v>
-      </c>
-      <c r="AE7">
-        <v>-0.24095902350704501</v>
-      </c>
-      <c r="AF7">
-        <v>-3.4205901015354402E-2</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="4"/>
-        <v>0.20675312249169062</v>
-      </c>
-      <c r="AH7">
-        <v>6.7346218779545898E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="P28">
-        <v>3.8254040343367303E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="4">
-        <v>8.021921E-5</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-      <c r="X29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>3.8254040343367303E-2</v>
-      </c>
-      <c r="E30">
-        <v>3.3656988524614795E-2</v>
-      </c>
-      <c r="F30">
-        <v>1.881645518958355E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="J30">
-        <f>E30-$D$30</f>
-        <v>-4.5970518187525081E-3</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="K30:M30" si="5">F30-$D$30</f>
-        <v>-1.9437585153783753E-2</v>
-      </c>
-      <c r="L30">
-        <f>G30-$D$30</f>
-        <v>9.3577388998401734E-2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="5"/>
-        <v>-3.8254040343367303E-2</v>
-      </c>
-      <c r="W30" t="s">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>1.4699534724151199E-2</v>
-      </c>
-      <c r="Y30">
-        <v>1.23333082465765E-2</v>
-      </c>
-      <c r="Z30">
-        <v>1.15233691222112E-2</v>
-      </c>
-      <c r="AA30">
-        <v>5.0919823235610999E-2</v>
-      </c>
-      <c r="AB30">
-        <v>7.7559447014856498E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>6.5886965629975897E-2</v>
-      </c>
-      <c r="E31">
-        <v>7.0106257429448801E-2</v>
-      </c>
-      <c r="F31">
-        <v>1.3297513394426398E-2</v>
-      </c>
-      <c r="G31">
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="J31">
-        <f>E31-$D$31</f>
-        <v>4.2192917994729046E-3</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ref="K31:M31" si="6">F31-$D$31</f>
-        <v>-5.2589452235549498E-2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="6"/>
-        <v>0.19473508611482312</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="6"/>
-        <v>-6.5886965629975897E-2</v>
-      </c>
-      <c r="W31" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>1.2253613767160901E-2</v>
-      </c>
-      <c r="Y31">
-        <v>1.12262255630663E-2</v>
-      </c>
-      <c r="Z31">
-        <v>1.15208763786351E-2</v>
-      </c>
-      <c r="AA31">
-        <v>4.9688426261210603E-2</v>
-      </c>
-      <c r="AB31">
-        <v>7.6025329214971203E-3</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>8.2416597634873939E-2</v>
-      </c>
-      <c r="E32">
-        <v>7.884031849901553E-2</v>
-      </c>
-      <c r="F32">
-        <v>5.6133450347480102E-2</v>
-      </c>
-      <c r="G32">
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="J32">
-        <f>E32-$D32</f>
-        <v>-3.5762791358584095E-3</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ref="K32:M35" si="7">F32-$D32</f>
-        <v>-2.6283147287393838E-2</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="7"/>
-        <v>0.22541951964853205</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="7"/>
-        <v>-8.2416597634873939E-2</v>
-      </c>
-      <c r="O32" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" s="3">
-        <f>P28/SQRT(P29*Q29)</f>
-        <v>2.465911544495166</v>
-      </c>
-      <c r="W32" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>1.0277503872742301E-2</v>
-      </c>
-      <c r="Y32">
-        <v>1.0784515707793599E-2</v>
-      </c>
-      <c r="Z32">
-        <v>1.2156463907706701E-2</v>
-      </c>
-      <c r="AA32">
-        <v>4.0977297242459E-2</v>
-      </c>
-      <c r="AB32">
-        <v>7.2799960954171503E-3</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG32" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>0.1696678528581346</v>
-      </c>
-      <c r="E33">
-        <v>0.13512388225150707</v>
-      </c>
-      <c r="F33">
-        <v>0.1380720020920175</v>
-      </c>
-      <c r="G33">
-        <v>0.495314458692792</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ref="J33:J35" si="8">E33-$D33</f>
-        <v>-3.4543970606627533E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="7"/>
-        <v>-3.1595850766117095E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="7"/>
-        <v>0.32564660583465743</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="7"/>
-        <v>-0.1696678528581346</v>
-      </c>
-      <c r="O33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W33" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33">
-        <v>1.0635163744365E-2</v>
-      </c>
-      <c r="Y33">
-        <v>1.27492838718757E-2</v>
-      </c>
-      <c r="Z33">
-        <v>1.2056288737931801E-2</v>
-      </c>
-      <c r="AA33">
-        <v>4.1207540726657901E-2</v>
-      </c>
-      <c r="AB33">
-        <v>6.9034099203564301E-3</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG33" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>0.19977640499678379</v>
-      </c>
-      <c r="E34">
-        <v>0.16676639177789421</v>
-      </c>
-      <c r="F34">
-        <v>0.1983374298946641</v>
-      </c>
-      <c r="G34">
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="8"/>
-        <v>-3.3010013218889578E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="7"/>
-        <v>-1.4389751021196828E-3</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="7"/>
-        <v>0.32929535855061115</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="7"/>
-        <v>-0.19977640499678379</v>
-      </c>
-      <c r="W34" t="s">
-        <v>5</v>
-      </c>
-      <c r="X34">
-        <v>1.023333767201E-2</v>
-      </c>
-      <c r="Y34">
-        <v>1.25880441400072E-2</v>
-      </c>
-      <c r="Z34">
-        <v>1.3164101317403899E-2</v>
-      </c>
-      <c r="AA34">
-        <v>3.9201494451930101E-2</v>
-      </c>
-      <c r="AB34">
-        <v>6.8355801471664396E-3</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>0.23987102679676195</v>
-      </c>
-      <c r="E35">
-        <v>0.21665418143856408</v>
-      </c>
-      <c r="F35">
-        <v>0.27946717558375661</v>
-      </c>
-      <c r="G35">
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="8"/>
-        <v>-2.3216845358197874E-2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="7"/>
-        <v>3.9596148786994662E-2</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="7"/>
-        <v>0.36144219674147104</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="7"/>
-        <v>-0.23987102679676195</v>
-      </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-      <c r="X35">
-        <v>1.02277072414738E-2</v>
-      </c>
-      <c r="Y35">
-        <v>1.26275243644847E-2</v>
-      </c>
-      <c r="Z35">
-        <v>1.43501733349208E-2</v>
-      </c>
-      <c r="AA35">
-        <v>3.8915444415642902E-2</v>
-      </c>
-      <c r="AB35">
-        <v>6.7346218779545898E-3</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG35" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36">
-        <f>SQRT(SUM(J30^2,J31^2,J32^2,J33^2,J34^2,J35^2)/5)</f>
-        <v>2.3973710048885873E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ref="K36:M36" si="9">SQRT(SUM(K30^2,K31^2,K32^2,K33^2,K34^2,K35^2)/5)</f>
-        <v>3.5784067594720581E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="9"/>
-        <v>0.2975278299502046</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="9"/>
-        <v>0.16663304665743095</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="P37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="AF39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="K40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="AF42" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG42" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="AF43" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="AF44" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A90002B-5E3A-4200-8443-CB1BA493B4D8}">
-  <dimension ref="A1:AH36"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.38813800195252E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.2101653120851001E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.38813800195252E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.47303983725358E-2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.6541395764879799E-2</v>
-      </c>
-      <c r="K2">
-        <v>5.0152559898413399E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
-        <v>3.36111641335336E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.2364067080746499E-2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>-1.6465660102482699E-2</v>
-      </c>
-      <c r="S2">
-        <v>2.3507950871008501E-3</v>
-      </c>
-      <c r="T2">
-        <f>S2-R2</f>
-        <v>1.881645518958355E-2</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1.15233691222112E-2</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>6.4041076623729699E-3</v>
-      </c>
-      <c r="Y2">
-        <v>0.13823553700414201</v>
-      </c>
-      <c r="Z2">
-        <f>Y2-X2</f>
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>5.09295224550795E-2</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>6.1592943440243204E-3</v>
-      </c>
-      <c r="AF2">
-        <v>2.9372162170314998E-2</v>
-      </c>
-      <c r="AG2">
-        <f>AF2-AE2</f>
-        <v>2.321286782629068E-2</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>7.7451600883838099E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-5.2935359545095699E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.0526816336062899E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
-        <v>6.34621758811586E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.2092369701991901E-2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-5.5594879463863101E-2</v>
-      </c>
-      <c r="K3">
-        <v>1.0306287648427601E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>6.5901167112290701E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.05832432501603E-2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-6.8763623150008807E-2</v>
-      </c>
-      <c r="S3">
-        <v>-4.8700201340955498E-2</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
-        <v>2.0063421809053308E-2</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1.0834043466129799E-2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>-7.3843105665885006E-2</v>
-      </c>
-      <c r="Y3">
-        <v>0.18677894607891399</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>4.9589501194189298E-2</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>-5.9981349990541603E-2</v>
-      </c>
-      <c r="AF3">
-        <v>-7.0259834048135399E-3</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
-        <v>5.2955366585728067E-2</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>7.3274128783119997E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-7.0039737351246897E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9.5391211973626308E-3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>7.9578858548609521E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.01196024057029E-2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-8.0192025219124302E-2</v>
-      </c>
-      <c r="K4">
-        <v>-6.9276652578529798E-3</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>7.3264359961271328E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.0090816810110601E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-9.7809437597303303E-2</v>
-      </c>
-      <c r="S4">
-        <v>-3.8268314295786698E-2</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="2"/>
-        <v>5.9541123301516605E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.17074691842863E-2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>-0.11579736016158999</v>
-      </c>
-      <c r="Y4">
-        <v>0.19203875712181601</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="3"/>
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>4.1051274730545199E-2</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>-8.43192992256796E-2</v>
-      </c>
-      <c r="AF4">
-        <v>-4.6672069102005904E-3</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="4"/>
-        <v>7.9652092315479012E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>7.0791747381083701E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.100700417401538</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.2855250949217595E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.16355566835075558</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.04347001876165E-2</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-0.12497700401166401</v>
-      </c>
-      <c r="K5">
-        <v>-6.6048074091839297E-3</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.11837219660248008</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.22301514439904E-2</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-0.169860566136951</v>
-      </c>
-      <c r="S5">
-        <v>-2.2704264223916502E-2</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="2"/>
-        <v>0.1471563019130345</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1.2014164397004701E-2</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <v>-0.23013626412802601</v>
-      </c>
-      <c r="Y5">
-        <v>0.26517819456476599</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="3"/>
-        <v>0.495314458692792</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>4.1608541934688999E-2</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>-0.13644605062597401</v>
-      </c>
-      <c r="AF5">
-        <v>7.7840332417282703E-3</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="4"/>
-        <v>0.14423008386770228</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>6.7222544155400403E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.18092696573678799</v>
-      </c>
-      <c r="D6">
-        <v>1.18524357561978E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.19277940149298578</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0034854494878899E-2</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-0.213675844933406</v>
-      </c>
-      <c r="K6">
-        <v>-6.6086165350516798E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.14758967958288921</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.1927972156265501E-2</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-0.22266796624195201</v>
-      </c>
-      <c r="S6">
-        <v>-1.39311647968259E-2</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="2"/>
-        <v>0.2087368014451261</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1.3039423776422801E-2</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-      <c r="X6">
-        <v>-0.31491319404682</v>
-      </c>
-      <c r="Y6">
-        <v>0.21415856950057499</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="3"/>
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>3.9536776357693398E-2</v>
-      </c>
-      <c r="AD6">
-        <v>5</v>
-      </c>
-      <c r="AE6">
-        <v>-0.198702148876719</v>
-      </c>
-      <c r="AF6">
-        <v>-2.19688889551947E-2</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="4"/>
-        <v>0.1767332599215243</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>6.6686714503862701E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.233582863255441</v>
-      </c>
-      <c r="D7">
-        <v>-2.23810002099905E-3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.23134476323444195</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.0042945227980301E-2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-0.27206710127142097</v>
-      </c>
-      <c r="K7">
-        <v>-7.8780880466949907E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0.19328622080447105</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.2056369617617101E-2</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7" s="1">
-        <v>-0.26764427477209501</v>
-      </c>
-      <c r="S7">
-        <v>2.4495151536361601E-2</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>0.29213942630845663</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1.4413328913534E-2</v>
-      </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>-0.37130426253347498</v>
-      </c>
-      <c r="Y7">
-        <v>0.23000896100475801</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>3.9272165766826898E-2</v>
-      </c>
-      <c r="AD7">
-        <v>6</v>
-      </c>
-      <c r="AE7">
-        <v>-0.24095902350704501</v>
-      </c>
-      <c r="AF7">
-        <v>-3.4205901015354402E-2</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="4"/>
-        <v>0.20675312249169062</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>6.5751490413726004E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f>E2</f>
-        <v>1.38813800195252E-2</v>
-      </c>
-      <c r="E30">
-        <f>L2</f>
-        <v>3.36111641335336E-2</v>
-      </c>
-      <c r="F30">
-        <f>T2</f>
-        <v>1.881645518958355E-2</v>
-      </c>
-      <c r="G30">
-        <f>Z2</f>
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="J30">
-        <f>E30-$D$30</f>
-        <v>1.97297841140084E-2</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="K30:M30" si="5">F30-$D$30</f>
-        <v>4.9350751700583499E-3</v>
-      </c>
-      <c r="L30">
-        <f>G30-$D$30</f>
-        <v>0.11795004932224383</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="5"/>
-        <v>-1.38813800195252E-2</v>
-      </c>
-      <c r="W30" t="s">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>1.4699534724151199E-2</v>
-      </c>
-      <c r="Y30">
-        <v>1.23333082465765E-2</v>
-      </c>
-      <c r="Z30">
-        <v>1.15233691222112E-2</v>
-      </c>
-      <c r="AA30">
-        <v>5.0919823235610999E-2</v>
-      </c>
-      <c r="AB30">
-        <v>7.7559447014856498E-3</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D35" si="6">E3</f>
-        <v>6.34621758811586E-2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E35" si="7">L3</f>
-        <v>6.5901167112290701E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F35" si="8">T3</f>
-        <v>2.0063421809053308E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G35" si="9">Z3</f>
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="J31">
-        <f>E31-$D$31</f>
-        <v>2.438991231132101E-3</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ref="K31:M31" si="10">F31-$D$31</f>
-        <v>-4.3398754072105292E-2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="10"/>
-        <v>0.19715987586364042</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="10"/>
-        <v>-6.34621758811586E-2</v>
-      </c>
-      <c r="W31" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>1.2253613767160901E-2</v>
-      </c>
-      <c r="Y31">
-        <v>1.12262255630663E-2</v>
-      </c>
-      <c r="Z31">
-        <v>1.15208763786351E-2</v>
-      </c>
-      <c r="AA31">
-        <v>4.9688426261210603E-2</v>
-      </c>
-      <c r="AB31">
-        <v>7.6025329214971203E-3</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="6"/>
-        <v>7.9578858548609521E-2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="7"/>
-        <v>7.3264359961271328E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="8"/>
-        <v>5.9541123301516605E-2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="9"/>
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="J32">
-        <f>E32-$D32</f>
-        <v>-6.3144985873381937E-3</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ref="K32:M35" si="11">F32-$D32</f>
-        <v>-2.0037735247092917E-2</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="11"/>
-        <v>0.22825725873479646</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="11"/>
-        <v>-7.9578858548609521E-2</v>
-      </c>
-      <c r="W32" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>1.0277503872742301E-2</v>
-      </c>
-      <c r="Y32">
-        <v>1.0784515707793599E-2</v>
-      </c>
-      <c r="Z32">
-        <v>1.2156463907706701E-2</v>
-      </c>
-      <c r="AA32">
-        <v>4.0977297242459E-2</v>
-      </c>
-      <c r="AB32">
-        <v>7.2799960954171503E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
-        <v>0.16355566835075558</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="7"/>
-        <v>0.11837219660248008</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="8"/>
-        <v>0.1471563019130345</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="9"/>
-        <v>0.495314458692792</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ref="J33:J35" si="12">E33-$D33</f>
-        <v>-4.51834717482755E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="11"/>
-        <v>-1.639936643772108E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="11"/>
-        <v>0.33175879034203642</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="11"/>
-        <v>-0.16355566835075558</v>
-      </c>
-      <c r="W33" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33">
-        <v>1.0635163744365E-2</v>
-      </c>
-      <c r="Y33">
-        <v>1.27492838718757E-2</v>
-      </c>
-      <c r="Z33">
-        <v>1.2056288737931801E-2</v>
-      </c>
-      <c r="AA33">
-        <v>4.1207540726657901E-2</v>
-      </c>
-      <c r="AB33">
-        <v>6.9034099203564301E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="6"/>
-        <v>0.19277940149298578</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
-        <v>0.14758967958288921</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="8"/>
-        <v>0.2087368014451261</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="9"/>
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="12"/>
-        <v>-4.518972191009657E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="11"/>
-        <v>1.5957399952140322E-2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="11"/>
-        <v>0.33629236205440916</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="11"/>
-        <v>-0.19277940149298578</v>
-      </c>
-      <c r="W34" t="s">
-        <v>5</v>
-      </c>
-      <c r="X34">
-        <v>1.023333767201E-2</v>
-      </c>
-      <c r="Y34">
-        <v>1.25880441400072E-2</v>
-      </c>
-      <c r="Z34">
-        <v>1.3164101317403899E-2</v>
-      </c>
-      <c r="AA34">
-        <v>3.9201494451930101E-2</v>
-      </c>
-      <c r="AB34">
-        <v>6.8355801471664396E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="6"/>
-        <v>0.23134476323444195</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="7"/>
-        <v>0.19328622080447105</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>0.29213942630845663</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="9"/>
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="12"/>
-        <v>-3.8058542429970893E-2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="11"/>
-        <v>6.0794663074014682E-2</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="11"/>
-        <v>0.36996846030379105</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="11"/>
-        <v>-0.23134476323444195</v>
-      </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-      <c r="X35">
-        <v>1.02277072414738E-2</v>
-      </c>
-      <c r="Y35">
-        <v>1.26275243644847E-2</v>
-      </c>
-      <c r="Z35">
-        <v>1.43501733349208E-2</v>
-      </c>
-      <c r="AA35">
-        <v>3.8915444415642902E-2</v>
-      </c>
-      <c r="AB35">
-        <v>6.7346218779545898E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36">
-        <f>SQRT(SUM(J30^2,J31^2,J32^2,J33^2,J34^2,J35^2)/5)</f>
-        <v>3.4546188470664548E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ref="K36:M36" si="13">SQRT(SUM(K30^2,K31^2,K32^2,K33^2,K34^2,K35^2)/5)</f>
-        <v>3.6135540806391642E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="13"/>
-        <v>0.30493235850454198</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="13"/>
-        <v>0.15999230542271295</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6DF9D-8B45-4E22-BDCD-A0004677D1E9}">
-  <dimension ref="A1:AH35"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.3847612777483699E-2</v>
-      </c>
-      <c r="D2">
-        <v>5.2101653120851001E-2</v>
-      </c>
-      <c r="E2">
-        <f>D2-C2</f>
-        <v>3.8254040343367303E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.4146732784307701E-2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.7524840545163799E-2</v>
-      </c>
-      <c r="K2">
-        <v>5.0152559898413399E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
-        <v>3.2627719353249596E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.19766266571249E-2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>-1.6371838536333502E-2</v>
-      </c>
-      <c r="S2">
-        <v>2.3507950871008501E-3</v>
-      </c>
-      <c r="T2">
-        <f>S2-R2</f>
-        <v>1.8722633623434352E-2</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1.1295956166508799E-2</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>6.4041076623729699E-3</v>
-      </c>
-      <c r="Y2">
-        <v>0.13823553700414201</v>
-      </c>
-      <c r="Z2">
-        <f>Y2-X2</f>
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>5.1020330406783401E-2</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>6.1592943440243204E-3</v>
-      </c>
-      <c r="AF2">
-        <v>2.9372162170314998E-2</v>
-      </c>
-      <c r="AG2">
-        <f>AF2-AE2</f>
-        <v>2.321286782629068E-2</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>7.70132213903949E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-5.8373515854795902E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.0526816336062899E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
-        <v>6.8900332190858796E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.1973235321744701E-2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-5.5804011250850702E-2</v>
-      </c>
-      <c r="K3">
-        <v>1.0306287648427601E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>6.6110298899278302E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.06421587221088E-2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-6.8778815980820099E-2</v>
-      </c>
-      <c r="S3">
-        <v>-4.8700201340955498E-2</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
-        <v>2.00786146398646E-2</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1.0821459984969599E-2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>-7.3843105665885006E-2</v>
-      </c>
-      <c r="Y3">
-        <v>0.18677894607891399</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>4.9955037213805599E-2</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>-5.9981349990541603E-2</v>
-      </c>
-      <c r="AF3">
-        <v>-7.0259834048135399E-3</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
-        <v>5.2955366585728067E-2</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>7.3294300468886896E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-7.8858289596088496E-2</v>
-      </c>
-      <c r="D4">
-        <v>9.5391211973626308E-3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>8.839741079345112E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0105892516481399E-2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-8.1145204210753399E-2</v>
-      </c>
-      <c r="K4">
-        <v>-6.9276652578529798E-3</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>7.4217538952900425E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.01438034481387E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-9.7608818715772996E-2</v>
-      </c>
-      <c r="S4">
-        <v>-3.8268314295786698E-2</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="2"/>
-        <v>5.9340504419986298E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.1684033897443101E-2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>-0.11579736016158999</v>
-      </c>
-      <c r="Y4">
-        <v>0.19203875712181601</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="3"/>
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>4.0961893612320298E-2</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>-8.43192992256796E-2</v>
-      </c>
-      <c r="AF4">
-        <v>-4.6672069102005904E-3</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="4"/>
-        <v>7.9652092315479012E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>7.0858297974232699E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.125639812638417</v>
-      </c>
-      <c r="D5">
-        <v>6.2855250949217595E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.1884950635876346</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0476075261672199E-2</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-0.12577739827791501</v>
-      </c>
-      <c r="K5">
-        <v>-6.6048074091839297E-3</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.11917259086873108</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.22778573806177E-2</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-0.170558523770138</v>
-      </c>
-      <c r="S5">
-        <v>-2.2704264223916502E-2</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="2"/>
-        <v>0.1478542595462215</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1.2065505200462401E-2</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <v>-0.23013626412802601</v>
-      </c>
-      <c r="Y5">
-        <v>0.26517819456476599</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="3"/>
-        <v>0.495314458692792</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>4.1384099050639903E-2</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>-0.13644605062597401</v>
-      </c>
-      <c r="AF5">
-        <v>7.7840332417282703E-3</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="4"/>
-        <v>0.14423008386770228</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>6.7309959922203797E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.214647925201158</v>
-      </c>
-      <c r="D6">
-        <v>1.18524357561978E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.22650036095735579</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.00290905642026E-2</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-0.214499576974885</v>
-      </c>
-      <c r="K6">
-        <v>-6.6086165350516798E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.14841341162436822</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.1958693834235701E-2</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-0.223386274818478</v>
-      </c>
-      <c r="S6">
-        <v>-1.39311647968259E-2</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="2"/>
-        <v>0.2094551100216521</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1.3081173436980099E-2</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-      <c r="X6">
-        <v>-0.31491319404682</v>
-      </c>
-      <c r="Y6">
-        <v>0.21415856950057499</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="3"/>
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>3.8596253275695103E-2</v>
-      </c>
-      <c r="AD6">
-        <v>5</v>
-      </c>
-      <c r="AE6">
-        <v>-0.198702148876719</v>
-      </c>
-      <c r="AF6">
-        <v>-2.19688889551947E-2</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="4"/>
-        <v>0.1767332599215243</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>6.6754383494060801E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.27591265621357702</v>
-      </c>
-      <c r="D7">
-        <v>-2.23810002099905E-3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.27367455619257797</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.00173531786346E-2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-0.272735702086919</v>
-      </c>
-      <c r="K7">
-        <v>-7.8780880466949907E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0.19395482161996908</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.2089506364395399E-2</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7" s="1">
-        <v>-0.26822730623847102</v>
-      </c>
-      <c r="S7">
-        <v>2.4495151536361601E-2</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>0.29272245777483263</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1.4462339848217E-2</v>
-      </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>-0.37130426253347498</v>
-      </c>
-      <c r="Y7">
-        <v>0.23000896100475801</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>3.7372594693865203E-2</v>
-      </c>
-      <c r="AD7">
-        <v>6</v>
-      </c>
-      <c r="AE7">
-        <v>-0.24095902350704501</v>
-      </c>
-      <c r="AF7">
-        <v>-3.4205901015354402E-2</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="4"/>
-        <v>0.20675312249169062</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>6.5806587953987899E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f>E2</f>
-        <v>3.8254040343367303E-2</v>
-      </c>
-      <c r="E30">
-        <f>L2</f>
-        <v>3.2627719353249596E-2</v>
-      </c>
-      <c r="F30">
-        <f>T2</f>
-        <v>1.8722633623434352E-2</v>
-      </c>
-      <c r="G30">
-        <f>Z2</f>
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="W30" t="s">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>1.4699534724151199E-2</v>
-      </c>
-      <c r="Y30">
-        <v>1.23333082465765E-2</v>
-      </c>
-      <c r="Z30">
-        <v>1.15233691222112E-2</v>
-      </c>
-      <c r="AA30">
-        <v>5.0919823235610999E-2</v>
-      </c>
-      <c r="AB30">
-        <v>7.7559447014856498E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D35" si="5">E3</f>
-        <v>6.8900332190858796E-2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E35" si="6">L3</f>
-        <v>6.6110298899278302E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F35" si="7">T3</f>
-        <v>2.00786146398646E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G35" si="8">Z3</f>
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="W31" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>1.2253613767160901E-2</v>
-      </c>
-      <c r="Y31">
-        <v>1.12262255630663E-2</v>
-      </c>
-      <c r="Z31">
-        <v>1.15208763786351E-2</v>
-      </c>
-      <c r="AA31">
-        <v>4.9688426261210603E-2</v>
-      </c>
-      <c r="AB31">
-        <v>7.6025329214971203E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
-        <v>8.839741079345112E-2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="6"/>
-        <v>7.4217538952900425E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="7"/>
-        <v>5.9340504419986298E-2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="8"/>
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="W32" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>1.0277503872742301E-2</v>
-      </c>
-      <c r="Y32">
-        <v>1.0784515707793599E-2</v>
-      </c>
-      <c r="Z32">
-        <v>1.2156463907706701E-2</v>
-      </c>
-      <c r="AA32">
-        <v>4.0977297242459E-2</v>
-      </c>
-      <c r="AB32">
-        <v>7.2799960954171503E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
-        <v>0.1884950635876346</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="6"/>
-        <v>0.11917259086873108</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="7"/>
-        <v>0.1478542595462215</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="8"/>
-        <v>0.495314458692792</v>
-      </c>
-      <c r="W33" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33">
-        <v>1.0635163744365E-2</v>
-      </c>
-      <c r="Y33">
-        <v>1.27492838718757E-2</v>
-      </c>
-      <c r="Z33">
-        <v>1.2056288737931801E-2</v>
-      </c>
-      <c r="AA33">
-        <v>4.1207540726657901E-2</v>
-      </c>
-      <c r="AB33">
-        <v>6.9034099203564301E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="5"/>
-        <v>0.22650036095735579</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="6"/>
-        <v>0.14841341162436822</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>0.2094551100216521</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="8"/>
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="W34" t="s">
-        <v>5</v>
-      </c>
-      <c r="X34">
-        <v>1.023333767201E-2</v>
-      </c>
-      <c r="Y34">
-        <v>1.25880441400072E-2</v>
-      </c>
-      <c r="Z34">
-        <v>1.3164101317403899E-2</v>
-      </c>
-      <c r="AA34">
-        <v>3.9201494451930101E-2</v>
-      </c>
-      <c r="AB34">
-        <v>6.8355801471664396E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="5"/>
-        <v>0.27367455619257797</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="6"/>
-        <v>0.19395482161996908</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="7"/>
-        <v>0.29272245777483263</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-      <c r="X35">
-        <v>1.02277072414738E-2</v>
-      </c>
-      <c r="Y35">
-        <v>1.26275243644847E-2</v>
-      </c>
-      <c r="Z35">
-        <v>1.43501733349208E-2</v>
-      </c>
-      <c r="AA35">
-        <v>3.8915444415642902E-2</v>
-      </c>
-      <c r="AB35">
-        <v>6.7346218779545898E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E25188B-7F25-46FA-BD53-DECB39475093}">
-  <dimension ref="A1:AH36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.3847612777483699E-2</v>
-      </c>
-      <c r="D2">
-        <v>5.2101653120851001E-2</v>
-      </c>
-      <c r="E2">
-        <f>D2-C2</f>
-        <v>3.8254040343367303E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.8158075762365999E-2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.20537696312473E-2</v>
-      </c>
-      <c r="K2">
-        <v>5.0152559898413399E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
-        <v>3.8098790267166102E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.64107163606237E-2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>-1.6798313801884901E-2</v>
-      </c>
-      <c r="S2">
-        <v>2.3507950871008501E-3</v>
-      </c>
-      <c r="T2">
-        <f>S2-R2</f>
-        <v>1.9149108888985751E-2</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1.1512387864431199E-2</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>6.4041076623729699E-3</v>
-      </c>
-      <c r="Y2">
-        <v>0.13823553700414201</v>
-      </c>
-      <c r="Z2">
-        <f>Y2-X2</f>
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>5.1567591871591503E-2</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>6.1592943440243204E-3</v>
-      </c>
-      <c r="AF2">
-        <v>2.9372162170314998E-2</v>
-      </c>
-      <c r="AG2">
-        <f>AF2-AE2</f>
-        <v>2.321286782629068E-2</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>7.7396376338252403E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-5.8373515854795902E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.0526816336062899E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
-        <v>6.8900332190858796E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.3597513329264699E-2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-7.1717119691841996E-2</v>
-      </c>
-      <c r="K3">
-        <v>1.0306287648427601E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>8.2023407340269597E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.5645425123402602E-2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-6.7995627316234805E-2</v>
-      </c>
-      <c r="S3">
-        <v>-4.8700201340955498E-2</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
-        <v>1.9295425975279307E-2</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1.0120255867390199E-2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>-7.3843105665885006E-2</v>
-      </c>
-      <c r="Y3">
-        <v>0.18677894607891399</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>4.9083302743074403E-2</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>-5.9981349990541603E-2</v>
-      </c>
-      <c r="AF3">
-        <v>-7.0259834048135399E-3</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
-        <v>5.2955366585728067E-2</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>7.3759885312294502E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-7.8858289596088496E-2</v>
-      </c>
-      <c r="D4">
-        <v>9.5391211973626308E-3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>8.839741079345112E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.1742535918643099E-2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-0.10216128319949699</v>
-      </c>
-      <c r="K4">
-        <v>-6.9276652578529798E-3</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>9.5233617941644019E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.3628839186418501E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-0.10004405129364199</v>
-      </c>
-      <c r="S4">
-        <v>-3.8268314295786698E-2</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="2"/>
-        <v>6.1775736997855296E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.1621840266459399E-2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>-0.11579736016158999</v>
-      </c>
-      <c r="Y4">
-        <v>0.19203875712181601</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="3"/>
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>4.0444067180843202E-2</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>-8.43192992256796E-2</v>
-      </c>
-      <c r="AF4">
-        <v>-4.6672069102005904E-3</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="4"/>
-        <v>7.9652092315479012E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>7.1487093535534301E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.125639812638417</v>
-      </c>
-      <c r="D5">
-        <v>6.2855250949217595E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.1884950635876346</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.2793556914926899E-2</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-0.16612715798402899</v>
-      </c>
-      <c r="K5">
-        <v>-6.6048074091839297E-3</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.15952235057484507</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.4290603320673801E-2</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-0.176345005497823</v>
-      </c>
-      <c r="S5">
-        <v>-2.2704264223916502E-2</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="2"/>
-        <v>0.15364074127390651</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1.2606559629047401E-2</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <v>-0.23013626412802601</v>
-      </c>
-      <c r="Y5">
-        <v>0.26517819456476599</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="3"/>
-        <v>0.495314458692792</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>4.0289484659342997E-2</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>-0.13644605062597401</v>
-      </c>
-      <c r="AF5">
-        <v>7.7840332417282703E-3</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="4"/>
-        <v>0.14423008386770228</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>6.7435580194039699E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.214647925201158</v>
-      </c>
-      <c r="D6">
-        <v>1.18524357561978E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.22650036095735579</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.1773713316064501E-2</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-0.24409161009153099</v>
-      </c>
-      <c r="K6">
-        <v>-6.6086165350516798E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.17800544474101421</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.3461087246003801E-2</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-0.230143422195588</v>
-      </c>
-      <c r="S6">
-        <v>-1.39311647968259E-2</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="2"/>
-        <v>0.2162122573987621</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1.35825818408892E-2</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-      <c r="X6">
-        <v>-0.31491319404682</v>
-      </c>
-      <c r="Y6">
-        <v>0.21415856950057499</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="3"/>
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>3.7943303452708597E-2</v>
-      </c>
-      <c r="AD6">
-        <v>5</v>
-      </c>
-      <c r="AE6">
-        <v>-0.198702148876719</v>
-      </c>
-      <c r="AF6">
-        <v>-2.19688889551947E-2</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="4"/>
-        <v>0.1767332599215243</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>6.6895472748080102E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.27591265621357702</v>
-      </c>
-      <c r="D7">
-        <v>-2.23810002099905E-3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.27367455619257797</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.1305685022013401E-2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-0.29596702082437099</v>
-      </c>
-      <c r="K7">
-        <v>-7.8780880466949907E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0.21718614035742106</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.31362786161725E-2</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7" s="1">
-        <v>-0.27591923940976798</v>
-      </c>
-      <c r="S7">
-        <v>2.4495151536361601E-2</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>0.30041439094612959</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1.4893166199766999E-2</v>
-      </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>-0.37130426253347498</v>
-      </c>
-      <c r="Y7">
-        <v>0.23000896100475801</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>3.7199069977476899E-2</v>
-      </c>
-      <c r="AD7">
-        <v>6</v>
-      </c>
-      <c r="AE7">
-        <v>-0.24095902350704501</v>
-      </c>
-      <c r="AF7">
-        <v>-3.4205901015354402E-2</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="4"/>
-        <v>0.20675312249169062</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>6.5967402982319403E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f>E2</f>
-        <v>3.8254040343367303E-2</v>
-      </c>
-      <c r="E30">
-        <f>L2</f>
-        <v>3.8098790267166102E-2</v>
-      </c>
-      <c r="F30">
-        <f>T2</f>
-        <v>1.9149108888985751E-2</v>
-      </c>
-      <c r="G30">
-        <f>Z2</f>
-        <v>0.13183142934176903</v>
-      </c>
-      <c r="J30">
-        <f>E30-$D$30</f>
-        <v>-1.5525007620120074E-4</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="K30:M30" si="5">F30-$D$30</f>
-        <v>-1.9104931454381552E-2</v>
-      </c>
-      <c r="L30">
-        <f>G30-$D$30</f>
-        <v>9.3577388998401734E-2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="5"/>
-        <v>-3.8254040343367303E-2</v>
-      </c>
-      <c r="W30" t="s">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>1.4699534724151199E-2</v>
-      </c>
-      <c r="Y30">
-        <v>1.23333082465765E-2</v>
-      </c>
-      <c r="Z30">
-        <v>1.15233691222112E-2</v>
-      </c>
-      <c r="AA30">
-        <v>5.0919823235610999E-2</v>
-      </c>
-      <c r="AB30">
-        <v>7.7559447014856498E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D35" si="6">E3</f>
-        <v>6.8900332190858796E-2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E35" si="7">L3</f>
-        <v>8.2023407340269597E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F35" si="8">T3</f>
-        <v>1.9295425975279307E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G35" si="9">Z3</f>
-        <v>0.26062205174479902</v>
-      </c>
-      <c r="J31">
-        <f>E31-$D$31</f>
-        <v>1.3123075149410801E-2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ref="K31:M31" si="10">F31-$D$31</f>
-        <v>-4.9604906215579489E-2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="10"/>
-        <v>0.19172171955394024</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="10"/>
-        <v>-6.8900332190858796E-2</v>
-      </c>
-      <c r="W31" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>1.2253613767160901E-2</v>
-      </c>
-      <c r="Y31">
-        <v>1.12262255630663E-2</v>
-      </c>
-      <c r="Z31">
-        <v>1.15208763786351E-2</v>
-      </c>
-      <c r="AA31">
-        <v>4.9688426261210603E-2</v>
-      </c>
-      <c r="AB31">
-        <v>7.6025329214971203E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="6"/>
-        <v>8.839741079345112E-2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="7"/>
-        <v>9.5233617941644019E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="8"/>
-        <v>6.1775736997855296E-2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="9"/>
-        <v>0.30783611728340599</v>
-      </c>
-      <c r="J32">
-        <f>E32-$D32</f>
-        <v>6.8362071481928993E-3</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ref="K32:M35" si="11">F32-$D32</f>
-        <v>-2.6621673795595824E-2</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="11"/>
-        <v>0.21943870648995487</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="11"/>
-        <v>-8.839741079345112E-2</v>
-      </c>
-      <c r="W32" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>1.0277503872742301E-2</v>
-      </c>
-      <c r="Y32">
-        <v>1.0784515707793599E-2</v>
-      </c>
-      <c r="Z32">
-        <v>1.2156463907706701E-2</v>
-      </c>
-      <c r="AA32">
-        <v>4.0977297242459E-2</v>
-      </c>
-      <c r="AB32">
-        <v>7.2799960954171503E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
-        <v>0.1884950635876346</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="7"/>
-        <v>0.15952235057484507</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="8"/>
-        <v>0.15364074127390651</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="9"/>
-        <v>0.495314458692792</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ref="J33:J35" si="12">E33-$D33</f>
-        <v>-2.897271301278953E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="11"/>
-        <v>-3.4854322313728092E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="11"/>
-        <v>0.30681939510515743</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="11"/>
-        <v>-0.1884950635876346</v>
-      </c>
-      <c r="W33" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33">
-        <v>1.0635163744365E-2</v>
-      </c>
-      <c r="Y33">
-        <v>1.27492838718757E-2</v>
-      </c>
-      <c r="Z33">
-        <v>1.2056288737931801E-2</v>
-      </c>
-      <c r="AA33">
-        <v>4.1207540726657901E-2</v>
-      </c>
-      <c r="AB33">
-        <v>6.9034099203564301E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="6"/>
-        <v>0.22650036095735579</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
-        <v>0.17800544474101421</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="8"/>
-        <v>0.2162122573987621</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="9"/>
-        <v>0.52907176354739494</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="12"/>
-        <v>-4.8494916216341583E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="11"/>
-        <v>-1.0288103558593692E-2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="11"/>
-        <v>0.30257140259003912</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="11"/>
-        <v>-0.22650036095735579</v>
-      </c>
-      <c r="W34" t="s">
-        <v>5</v>
-      </c>
-      <c r="X34">
-        <v>1.023333767201E-2</v>
-      </c>
-      <c r="Y34">
-        <v>1.25880441400072E-2</v>
-      </c>
-      <c r="Z34">
-        <v>1.3164101317403899E-2</v>
-      </c>
-      <c r="AA34">
-        <v>3.9201494451930101E-2</v>
-      </c>
-      <c r="AB34">
-        <v>6.8355801471664396E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="6"/>
-        <v>0.27367455619257797</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="7"/>
-        <v>0.21718614035742106</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>0.30041439094612959</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="9"/>
-        <v>0.60131322353823302</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="12"/>
-        <v>-5.6488415835156902E-2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="11"/>
-        <v>2.6739834753551628E-2</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="11"/>
-        <v>0.32763866734565505</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="11"/>
-        <v>-0.27367455619257797</v>
-      </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-      <c r="X35">
-        <v>1.02277072414738E-2</v>
-      </c>
-      <c r="Y35">
-        <v>1.26275243644847E-2</v>
-      </c>
-      <c r="Z35">
-        <v>1.43501733349208E-2</v>
-      </c>
-      <c r="AA35">
-        <v>3.8915444415642902E-2</v>
-      </c>
-      <c r="AB35">
-        <v>6.7346218779545898E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36">
-        <f>SQRT(SUM(J30^2,J31^2,J32^2,J33^2,J34^2,J35^2)/5)</f>
-        <v>3.6334801647603103E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ref="K36:M36" si="13">SQRT(SUM(K30^2,K31^2,K32^2,K33^2,K34^2,K35^2)/5)</f>
-        <v>3.3376777147115351E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="13"/>
-        <v>0.27810141409367106</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="13"/>
-        <v>0.18748615673244368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC5A87-F1D7-4C96-82ED-0C4ED6F957B8}">
-  <dimension ref="D1:AD32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
@@ -37139,6 +33175,9 @@
       <c r="O2" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
       <c r="T2" t="s">
         <v>40</v>
       </c>
@@ -37175,31 +33214,31 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.46672287361833298</v>
+        <v>6.62669934657171E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>0.46324616778299599</v>
+        <v>4.51749056062948E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>0.49389611059520699</v>
+        <v>0.22785078463851</v>
       </c>
       <c r="H3" s="1">
-        <v>0.39015231240812298</v>
+        <v>6.8499977138007498E-2</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
-        <v>0.46714485310279102</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0.46408799524956401</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.49367264399795402</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0.39025182717738799</v>
+      <c r="L3" s="1">
+        <v>6.7557824589163901E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.6924110623309603E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.22163993037719301</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.8600280876977004E-2</v>
       </c>
       <c r="T3" t="s">
         <v>1</v>
@@ -37214,6 +33253,7 @@
         <v>1.881645518958355E-2</v>
       </c>
       <c r="X3">
+        <f>'5F_Model'!Z2</f>
         <v>0.13183142934176903</v>
       </c>
       <c r="Z3" t="s">
@@ -37229,6 +33269,7 @@
         <v>1.881645518958355E-2</v>
       </c>
       <c r="AD3">
+        <f>'4F_Model'!Z2</f>
         <v>0.13183142934176903</v>
       </c>
     </row>
@@ -37237,31 +33278,31 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.41912391729059401</v>
+        <v>1.06395880481311E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.37304632148231898</v>
+        <v>1.4450201522015901E-3</v>
       </c>
       <c r="G4" s="1">
-        <v>0.497915933463215</v>
+        <v>0.34819724268417401</v>
       </c>
       <c r="H4" s="1">
-        <v>0.24863226703809299</v>
+        <v>1.6177490815925202E-2</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
-        <v>0.43299710120470503</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.38195144520751101</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.49484019378463401</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.249291572208687</v>
+      <c r="L4" s="1">
+        <v>1.61005505250638E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.54731971380323E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.26330901598961098</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.6227065091623999E-2</v>
       </c>
       <c r="T4" t="s">
         <v>2</v>
@@ -37276,6 +33317,7 @@
         <v>1.3297513394426398E-2</v>
       </c>
       <c r="X4">
+        <f>'5F_Model'!Z3</f>
         <v>0.26062205174479902</v>
       </c>
       <c r="Z4" t="s">
@@ -37291,7 +33333,8 @@
         <v>2.0063421809053308E-2</v>
       </c>
       <c r="AD4">
-        <v>0.26062205174479902</v>
+        <f>'4F_Model'!Z3</f>
+        <v>0.26000782607891398</v>
       </c>
     </row>
     <row r="5" spans="4:30" x14ac:dyDescent="0.25">
@@ -37299,31 +33342,31 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>0.375348662510612</v>
+        <v>2.07204447787257E-3</v>
       </c>
       <c r="F5" s="1">
-        <v>0.41448585636466101</v>
+        <v>9.1956865220525399E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>0.46809410272192598</v>
+        <v>8.71463387172461E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.19208561647903599</v>
+        <v>7.18683147258385E-3</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
-        <v>0.40108704603273998</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.42138934522154903</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.46186671687791597</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.19180133352524001</v>
+      <c r="L5" s="1">
+        <v>4.4868170796917304E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9.7511560749815405E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6.5096506628677095E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.2001200719781699E-3</v>
       </c>
       <c r="T5" t="s">
         <v>3</v>
@@ -37338,6 +33381,7 @@
         <v>5.6133450347480102E-2</v>
       </c>
       <c r="X5">
+        <f>'5F_Model'!Z4</f>
         <v>0.30783611728340599</v>
       </c>
       <c r="Z5" t="s">
@@ -37353,7 +33397,8 @@
         <v>5.9541123301516605E-2</v>
       </c>
       <c r="AD5">
-        <v>0.30783611728340599</v>
+        <f>'4F_Model'!Z4</f>
+        <v>0.30833175712181599</v>
       </c>
     </row>
     <row r="6" spans="4:30" x14ac:dyDescent="0.25">
@@ -37361,31 +33406,31 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.14079019569583801</v>
+        <v>4.8124531875906498E-4</v>
       </c>
       <c r="F6" s="1">
-        <v>0.36378935120651501</v>
+        <v>8.2996927329239203E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>0.34606964295818599</v>
+        <v>4.3330309295584596E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>6.8863611581768999E-2</v>
+        <v>2.6867573894596899E-3</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.21084624658640599</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.39309647986053098</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.32082298476384302</v>
-      </c>
-      <c r="O6" s="2">
-        <v>6.2270531327929E-2</v>
+      <c r="L6" s="1">
+        <v>3.31504226374407E-4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.54336167696098E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.1910966559251098E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2.3973607902797499E-3</v>
       </c>
       <c r="T6" t="s">
         <v>4</v>
@@ -37400,6 +33445,7 @@
         <v>0.1380720020920175</v>
       </c>
       <c r="X6">
+        <f>'5F_Model'!Z5</f>
         <v>0.495314458692792</v>
       </c>
       <c r="Z6" t="s">
@@ -37415,7 +33461,8 @@
         <v>0.1471563019130345</v>
       </c>
       <c r="AD6">
-        <v>0.495314458692792</v>
+        <f>'4F_Model'!Z5</f>
+        <v>0.50548919456476593</v>
       </c>
     </row>
     <row r="7" spans="4:30" x14ac:dyDescent="0.25">
@@ -37423,31 +33470,31 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>7.7989266697037901E-2</v>
+        <v>4.7423119999999999E-4</v>
       </c>
       <c r="F7" s="1">
-        <v>0.31288701720225398</v>
+        <v>3.31586812399586E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>0.24362577365496599</v>
+        <v>7.6849311216461796E-4</v>
       </c>
       <c r="H7" s="1">
-        <v>6.0354305918722803E-2</v>
+        <v>2.7646549133435801E-3</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="2">
-        <v>0.15032055203262501</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.34652900994089197</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.21124631855175699</v>
-      </c>
-      <c r="O7" s="2">
-        <v>5.3482226595304501E-2</v>
+      <c r="L7" s="1">
+        <v>5.3738750019097605E-4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6.0512878072064898E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.1460139744916897E-4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.4150008370839599E-3</v>
       </c>
       <c r="T7" t="s">
         <v>5</v>
@@ -37462,6 +33509,7 @@
         <v>0.1983374298946641</v>
       </c>
       <c r="X7">
+        <f>'5F_Model'!Z6</f>
         <v>0.52907176354739494</v>
       </c>
       <c r="Z7" t="s">
@@ -37477,7 +33525,8 @@
         <v>0.2087368014451261</v>
       </c>
       <c r="AD7">
-        <v>0.52907176354739494</v>
+        <f>'4F_Model'!Z6</f>
+        <v>0.54071936950057498</v>
       </c>
     </row>
     <row r="8" spans="4:30" x14ac:dyDescent="0.25">
@@ -37485,31 +33534,31 @@
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>2.71064472828598E-2</v>
+        <v>3.1232145800000002E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>0.21827815695988301</v>
+        <v>5.08449307851041E-4</v>
       </c>
       <c r="G8" s="1">
-        <v>0.113032192431373</v>
+        <v>5.9118739756579898E-5</v>
       </c>
       <c r="H8" s="1">
-        <v>3.3975873844253497E-2</v>
+        <v>1.8451880419280201E-3</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="2">
-        <v>8.4848407496669803E-2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.26361637636575003</v>
-      </c>
-      <c r="N8" s="2">
-        <v>8.8483606290108305E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2.8736557675009801E-2</v>
+      <c r="L8" s="1">
+        <v>5.5456586057695597E-4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.21902563269382E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.47354268399066E-5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.57986974237381E-3</v>
       </c>
       <c r="T8" t="s">
         <v>6</v>
@@ -37524,6 +33573,7 @@
         <v>0.27946717558375661</v>
       </c>
       <c r="X8">
+        <f>'5F_Model'!Z7</f>
         <v>0.60131322353823302</v>
       </c>
       <c r="Z8" t="s">
@@ -37539,7 +33589,8 @@
         <v>0.29213942630845663</v>
       </c>
       <c r="AD8">
-        <v>0.60131322353823302</v>
+        <f>'4F_Model'!Z7</f>
+        <v>0.61550656100475798</v>
       </c>
     </row>
     <row r="16" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37608,32 +33659,32 @@
       <c r="D17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
-        <v>0.46672287361833298</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.46471158029929099</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.49379545915281398</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0.38454670696721599</v>
+      <c r="E17" s="1">
+        <v>6.62669934657171E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.59528478908914E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.223756104287056</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.5060720310905804E-2</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="11">
-        <v>0.47454512353254102</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0.47674988166395699</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0.49362165045951001</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0.378045305586591</v>
+      <c r="L17" s="1">
+        <v>6.62669934657171E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.113070006310212</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.222775310756784</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5.9370459856826902E-2</v>
       </c>
       <c r="T17" t="s">
         <v>1</v>
@@ -37648,7 +33699,8 @@
         <v>1.8722633623434352E-2</v>
       </c>
       <c r="X17">
-        <v>0.13183142934176903</v>
+        <f>'3F_Model'!Z2</f>
+        <v>0.13457262800414202</v>
       </c>
       <c r="Z17" t="s">
         <v>1</v>
@@ -37663,39 +33715,40 @@
         <v>1.9149108888985751E-2</v>
       </c>
       <c r="AD17">
-        <v>0.13183142934176903</v>
+        <f>F_Model!Z2</f>
+        <v>0.13488638800414202</v>
       </c>
     </row>
     <row r="18" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.41912391729059401</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.38287407859939399</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.49482561958215698</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.24603619714727501</v>
+      <c r="E18" s="1">
+        <v>1.06395880481311E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.6353290900764899E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.26289705774428901</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.5179078847175001E-2</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="2">
-        <v>0.421414584541424</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.41394704888013401</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.494879483069113</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0.22833130786876801</v>
+      <c r="L18" s="1">
+        <v>1.06395880481311E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.62414735643906E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.25699793657095199</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.2727921010108501E-2</v>
       </c>
       <c r="T18" t="s">
         <v>2</v>
@@ -37710,7 +33763,8 @@
         <v>2.00786146398646E-2</v>
       </c>
       <c r="X18">
-        <v>0.26062205174479902</v>
+        <f>'3F_Model'!Z3</f>
+        <v>0.25938796607891401</v>
       </c>
       <c r="Z18" t="s">
         <v>2</v>
@@ -37725,39 +33779,40 @@
         <v>1.9295425975279307E-2</v>
       </c>
       <c r="AD18">
-        <v>0.26062205174479902</v>
+        <f>F_Model!Z3</f>
+        <v>0.26920816607891396</v>
       </c>
     </row>
     <row r="19" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.375348662510612</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.419300839777066</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.46206072787883101</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.19289381432017499</v>
+      <c r="E19" s="1">
+        <v>2.07204447787257E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.13032892185635E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.5394878546102403E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6.9628730232082396E-3</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="2">
-        <v>0.38451752414141999</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.40468718773294199</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.45813410878103</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.201955321741522</v>
+      <c r="L19" s="1">
+        <v>2.07204447787257E-3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.32224109298659E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5.5753160636623798E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>8.2605798991649097E-3</v>
       </c>
       <c r="T19" t="s">
         <v>3</v>
@@ -37772,7 +33827,8 @@
         <v>5.9340504419986298E-2</v>
       </c>
       <c r="X19">
-        <v>0.30783611728340599</v>
+        <f>'3F_Model'!Z4</f>
+        <v>0.30484085712181602</v>
       </c>
       <c r="Z19" t="s">
         <v>3</v>
@@ -37787,39 +33843,40 @@
         <v>6.1775736997855296E-2</v>
       </c>
       <c r="AD19">
-        <v>0.30783611728340599</v>
+        <f>F_Model!Z4</f>
+        <v>0.303116057121816</v>
       </c>
     </row>
     <row r="20" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.14079019569583801</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.39201324334331</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.31991965289006702</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6.7932310992834505E-2</v>
+      <c r="E20" s="1">
+        <v>4.8124531875906498E-4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.5165659412692101E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.1797326641432701E-3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.3872022916433299E-3</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="2">
-        <v>0.13111745895745</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.32958812943297999</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.31485218062370202</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0.11657467038361401</v>
+      <c r="L20" s="1">
+        <v>4.81245318759065E-3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5.44903627909316E-3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.31564699366339E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>6.5725458072586999E-3</v>
       </c>
       <c r="T20" t="s">
         <v>4</v>
@@ -37834,7 +33891,8 @@
         <v>0.1478542595462215</v>
       </c>
       <c r="X20">
-        <v>0.495314458692792</v>
+        <f>'3F_Model'!Z5</f>
+        <v>0.48965569456476599</v>
       </c>
       <c r="Z20" t="s">
         <v>4</v>
@@ -37849,39 +33907,40 @@
         <v>0.15364074127390651</v>
       </c>
       <c r="AD20">
-        <v>0.495314458692792</v>
+        <f>F_Model!Z5</f>
+        <v>0.451782694564766</v>
       </c>
     </row>
     <row r="21" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="2">
-        <v>7.7989266697037901E-2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.34515301211244298</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.21037121232720299</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5.6174412415763202E-2</v>
+      <c r="E21" s="1">
+        <v>4.59471976487247E-4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5.9057737934504802E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.1339407404166602E-4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.1617033407781401E-3</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="2">
-        <v>8.4512152237939994E-2</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.30184719267242599</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.20523212764429</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.10188737956697599</v>
+      <c r="L21" s="1">
+        <v>4.59471976487247E-4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3.3744735842496701E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3.4416698669855898E-4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5.8409641372329096E-3</v>
       </c>
       <c r="T21" t="s">
         <v>5</v>
@@ -37896,7 +33955,8 @@
         <v>0.2094551100216521</v>
       </c>
       <c r="X21">
-        <v>0.52907176354739494</v>
+        <f>'3F_Model'!Z6</f>
+        <v>0.52442416950057491</v>
       </c>
       <c r="Z21" t="s">
         <v>5</v>
@@ -37911,39 +33971,40 @@
         <v>0.2162122573987621</v>
       </c>
       <c r="AD21">
-        <v>0.52907176354739494</v>
+        <f>F_Model!Z6</f>
+        <v>0.47964606950057498</v>
       </c>
     </row>
     <row r="22" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
-        <v>2.71064472828598E-2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.26270836852437301</v>
-      </c>
-      <c r="G22" s="2">
-        <v>8.8578239388474797E-2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2.6175826412824801E-2</v>
+      <c r="E22" s="1">
+        <v>1.8690682252487401E-4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.2088849611177799E-3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.55533544031352E-5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.0837338549206899E-3</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="2">
-        <v>2.4852684282854001E-2</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.22954438424003701</v>
-      </c>
-      <c r="N22" s="2">
-        <v>8.4414527194766095E-2</v>
-      </c>
-      <c r="O22" s="2">
-        <v>5.6617932650434098E-2</v>
+      <c r="L22" s="1">
+        <v>1.8690682252487401E-4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>8.3561894161967502E-4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2.76457106145711E-5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.9710370722214698E-3</v>
       </c>
       <c r="T22" t="s">
         <v>6</v>
@@ -37958,7 +34019,8 @@
         <v>0.29272245777483263</v>
       </c>
       <c r="X22">
-        <v>0.60131322353823302</v>
+        <f>'3F_Model'!Z7</f>
+        <v>0.60228016100475801</v>
       </c>
       <c r="Z22" t="s">
         <v>6</v>
@@ -37973,7 +34035,8 @@
         <v>0.30041439094612959</v>
       </c>
       <c r="AD22">
-        <v>0.60131322353823302</v>
+        <f>F_Model!Z7</f>
+        <v>0.55097806100475799</v>
       </c>
     </row>
     <row r="24" spans="4:30" x14ac:dyDescent="0.25">
@@ -37990,9 +34053,6 @@
     </row>
     <row r="28" spans="4:30" x14ac:dyDescent="0.25">
       <c r="T28" s="2"/>
-      <c r="V28">
-        <v>8.0000000000000007E-5</v>
-      </c>
     </row>
     <row r="29" spans="4:30" x14ac:dyDescent="0.25">
       <c r="T29" s="2"/>
@@ -38010,4 +34070,3972 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EF49BA-8DFE-4B06-86AD-61F76BD2A00E}">
+  <dimension ref="A1:AH44"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.3847612777483699E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.2101653120851001E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>3.8254040343367303E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.4699534724151199E-2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1.64955713737986E-2</v>
+      </c>
+      <c r="K2">
+        <v>5.0152559898413399E-2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
+        <v>3.3656988524614795E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.23333082465765E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>-1.6465660102482699E-2</v>
+      </c>
+      <c r="S2">
+        <v>2.3507950871008501E-3</v>
+      </c>
+      <c r="T2">
+        <f>S2-R2</f>
+        <v>1.881645518958355E-2</v>
+      </c>
+      <c r="U2">
+        <v>1.15233691222112E-2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>6.4041076623729699E-3</v>
+      </c>
+      <c r="Y2">
+        <v>0.13823553700414201</v>
+      </c>
+      <c r="Z2">
+        <f>Y2-X2</f>
+        <v>0.13183142934176903</v>
+      </c>
+      <c r="AA2">
+        <v>5.0919823235610999E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>6.1592943440243204E-3</v>
+      </c>
+      <c r="AF2">
+        <v>2.9372162170314998E-2</v>
+      </c>
+      <c r="AG2">
+        <f>AF2-AE2</f>
+        <v>2.321286782629068E-2</v>
+      </c>
+      <c r="AH2">
+        <v>7.7559447014856498E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-5.5360149293913002E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.0526816336062899E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
+        <v>6.5886965629975897E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.2253613767160901E-2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>-5.9799969781021201E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.0306287648427601E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>7.0106257429448801E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.12262255630663E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>-6.1997714735381897E-2</v>
+      </c>
+      <c r="S3">
+        <v>-4.8700201340955498E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
+        <v>1.3297513394426398E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.15208763786351E-2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>-7.3843105665885006E-2</v>
+      </c>
+      <c r="Y3">
+        <v>0.18677894607891399</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
+        <v>0.26062205174479902</v>
+      </c>
+      <c r="AA3">
+        <v>4.9688426261210603E-2</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>-5.9981349990541603E-2</v>
+      </c>
+      <c r="AF3">
+        <v>-7.0259834048135399E-3</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
+        <v>5.2955366585728067E-2</v>
+      </c>
+      <c r="AH3">
+        <v>7.6025329214971203E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-7.2877476437511302E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.5391211973626308E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>8.2416597634873939E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.0277503872742301E-2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-8.5767983756868504E-2</v>
+      </c>
+      <c r="K4">
+        <v>-6.9276652578529798E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>7.884031849901553E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.0784515707793599E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>-9.44017646432668E-2</v>
+      </c>
+      <c r="S4">
+        <v>-3.8268314295786698E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>5.6133450347480102E-2</v>
+      </c>
+      <c r="U4">
+        <v>1.2156463907706701E-2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>-0.11579736016158999</v>
+      </c>
+      <c r="Y4">
+        <v>0.19203875712181601</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>0.30783611728340599</v>
+      </c>
+      <c r="AA4">
+        <v>4.0977297242459E-2</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>-8.43192992256796E-2</v>
+      </c>
+      <c r="AF4">
+        <v>-4.6672069102005904E-3</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="4"/>
+        <v>7.9652092315479012E-2</v>
+      </c>
+      <c r="AH4">
+        <v>7.2799960954171503E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>-0.106812601908917</v>
+      </c>
+      <c r="D5">
+        <v>6.2855250949217595E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.1696678528581346</v>
+      </c>
+      <c r="F5">
+        <v>1.0635163744365E-2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-0.14172868966069099</v>
+      </c>
+      <c r="K5">
+        <v>-6.6048074091839297E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.13512388225150707</v>
+      </c>
+      <c r="M5">
+        <v>1.27492838718757E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>-0.160776266315934</v>
+      </c>
+      <c r="S5">
+        <v>-2.2704264223916502E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0.1380720020920175</v>
+      </c>
+      <c r="U5">
+        <v>1.2056288737931801E-2</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>-0.23013626412802601</v>
+      </c>
+      <c r="Y5">
+        <v>0.26517819456476599</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.495314458692792</v>
+      </c>
+      <c r="AA5">
+        <v>4.1207540726657901E-2</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>-0.13644605062597401</v>
+      </c>
+      <c r="AF5">
+        <v>7.7840332417282703E-3</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>0.14423008386770228</v>
+      </c>
+      <c r="AH5">
+        <v>6.9034099203564301E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-0.18792396924058599</v>
+      </c>
+      <c r="D6">
+        <v>1.18524357561978E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.19977640499678379</v>
+      </c>
+      <c r="F6">
+        <v>1.023333767201E-2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>-0.23285255712841099</v>
+      </c>
+      <c r="K6">
+        <v>-6.6086165350516798E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.16676639177789421</v>
+      </c>
+      <c r="M6">
+        <v>1.25880441400072E-2</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>-0.21226859469149001</v>
+      </c>
+      <c r="S6">
+        <v>-1.39311647968259E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.1983374298946641</v>
+      </c>
+      <c r="U6">
+        <v>1.3164101317403899E-2</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>-0.31491319404682</v>
+      </c>
+      <c r="Y6">
+        <v>0.21415856950057499</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.52907176354739494</v>
+      </c>
+      <c r="AA6">
+        <v>3.9201494451930101E-2</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>-0.198702148876719</v>
+      </c>
+      <c r="AF6">
+        <v>-2.19688889551947E-2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="4"/>
+        <v>0.1767332599215243</v>
+      </c>
+      <c r="AH6">
+        <v>6.8355801471664396E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>-0.24210912681776101</v>
+      </c>
+      <c r="D7">
+        <v>-2.23810002099905E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.23987102679676195</v>
+      </c>
+      <c r="F7">
+        <v>1.02277072414738E-2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>-0.295435061905514</v>
+      </c>
+      <c r="K7">
+        <v>-7.8780880466949907E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.21665418143856408</v>
+      </c>
+      <c r="M7">
+        <v>1.26275243644847E-2</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>-0.254972024047395</v>
+      </c>
+      <c r="S7">
+        <v>2.4495151536361601E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0.27946717558375661</v>
+      </c>
+      <c r="U7">
+        <v>1.43501733349208E-2</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>-0.37130426253347498</v>
+      </c>
+      <c r="Y7">
+        <v>0.23000896100475801</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.60131322353823302</v>
+      </c>
+      <c r="AA7">
+        <v>3.8915444415642902E-2</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>-0.24095902350704501</v>
+      </c>
+      <c r="AF7">
+        <v>-3.4205901015354402E-2</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>0.20675312249169062</v>
+      </c>
+      <c r="AH7">
+        <v>6.7346218779545898E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>3.8254040343367303E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="4">
+        <v>8.021921E-5</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="X29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3.8254040343367303E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.3656988524614795E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.881645518958355E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.13183142934176903</v>
+      </c>
+      <c r="J30">
+        <f>E30-$D$30</f>
+        <v>-4.5970518187525081E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:M30" si="5">F30-$D$30</f>
+        <v>-1.9437585153783753E-2</v>
+      </c>
+      <c r="L30">
+        <f>G30-$D$30</f>
+        <v>9.3577388998401734E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>-3.8254040343367303E-2</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1.4699534724151199E-2</v>
+      </c>
+      <c r="Y30">
+        <v>1.23333082465765E-2</v>
+      </c>
+      <c r="Z30">
+        <v>1.15233691222112E-2</v>
+      </c>
+      <c r="AA30">
+        <v>5.0919823235610999E-2</v>
+      </c>
+      <c r="AB30">
+        <v>7.7559447014856498E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>6.5886965629975897E-2</v>
+      </c>
+      <c r="E31">
+        <v>7.0106257429448801E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.3297513394426398E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.26062205174479902</v>
+      </c>
+      <c r="J31">
+        <f>E31-$D$31</f>
+        <v>4.2192917994729046E-3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:M31" si="6">F31-$D$31</f>
+        <v>-5.2589452235549498E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>0.19473508611482312</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>-6.5886965629975897E-2</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>1.2253613767160901E-2</v>
+      </c>
+      <c r="Y31">
+        <v>1.12262255630663E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.15208763786351E-2</v>
+      </c>
+      <c r="AA31">
+        <v>4.9688426261210603E-2</v>
+      </c>
+      <c r="AB31">
+        <v>7.6025329214971203E-3</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>8.2416597634873939E-2</v>
+      </c>
+      <c r="E32">
+        <v>7.884031849901553E-2</v>
+      </c>
+      <c r="F32">
+        <v>5.6133450347480102E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.30783611728340599</v>
+      </c>
+      <c r="J32">
+        <f>E32-$D32</f>
+        <v>-3.5762791358584095E-3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:M35" si="7">F32-$D32</f>
+        <v>-2.6283147287393838E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>0.22541951964853205</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>-8.2416597634873939E-2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="3">
+        <f>P28/SQRT(P29*Q29)</f>
+        <v>2.465911544495166</v>
+      </c>
+      <c r="W32" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>1.0277503872742301E-2</v>
+      </c>
+      <c r="Y32">
+        <v>1.0784515707793599E-2</v>
+      </c>
+      <c r="Z32">
+        <v>1.2156463907706701E-2</v>
+      </c>
+      <c r="AA32">
+        <v>4.0977297242459E-2</v>
+      </c>
+      <c r="AB32">
+        <v>7.2799960954171503E-3</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.1696678528581346</v>
+      </c>
+      <c r="E33">
+        <v>0.13512388225150707</v>
+      </c>
+      <c r="F33">
+        <v>0.1380720020920175</v>
+      </c>
+      <c r="G33">
+        <v>0.495314458692792</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J35" si="8">E33-$D33</f>
+        <v>-3.4543970606627533E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>-3.1595850766117095E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>0.32564660583465743</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>-0.1696678528581346</v>
+      </c>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>1.0635163744365E-2</v>
+      </c>
+      <c r="Y33">
+        <v>1.27492838718757E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.2056288737931801E-2</v>
+      </c>
+      <c r="AA33">
+        <v>4.1207540726657901E-2</v>
+      </c>
+      <c r="AB33">
+        <v>6.9034099203564301E-3</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0.19977640499678379</v>
+      </c>
+      <c r="E34">
+        <v>0.16676639177789421</v>
+      </c>
+      <c r="F34">
+        <v>0.1983374298946641</v>
+      </c>
+      <c r="G34">
+        <v>0.52907176354739494</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>-3.3010013218889578E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>-1.4389751021196828E-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>0.32929535855061115</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>-0.19977640499678379</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>1.023333767201E-2</v>
+      </c>
+      <c r="Y34">
+        <v>1.25880441400072E-2</v>
+      </c>
+      <c r="Z34">
+        <v>1.3164101317403899E-2</v>
+      </c>
+      <c r="AA34">
+        <v>3.9201494451930101E-2</v>
+      </c>
+      <c r="AB34">
+        <v>6.8355801471664396E-3</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0.23987102679676195</v>
+      </c>
+      <c r="E35">
+        <v>0.21665418143856408</v>
+      </c>
+      <c r="F35">
+        <v>0.27946717558375661</v>
+      </c>
+      <c r="G35">
+        <v>0.60131322353823302</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>-2.3216845358197874E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>3.9596148786994662E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>0.36144219674147104</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>-0.23987102679676195</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>1.02277072414738E-2</v>
+      </c>
+      <c r="Y35">
+        <v>1.26275243644847E-2</v>
+      </c>
+      <c r="Z35">
+        <v>1.43501733349208E-2</v>
+      </c>
+      <c r="AA35">
+        <v>3.8915444415642902E-2</v>
+      </c>
+      <c r="AB35">
+        <v>6.7346218779545898E-3</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <f>SQRT(SUM(J30^2,J31^2,J32^2,J33^2,J34^2,J35^2)/5)</f>
+        <v>2.3973710048885873E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:M36" si="9">SQRT(SUM(K30^2,K31^2,K32^2,K33^2,K34^2,K35^2)/5)</f>
+        <v>3.5784067594720581E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>0.2975278299502046</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="9"/>
+        <v>0.16663304665743095</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AF42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AF43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AF44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A90002B-5E3A-4200-8443-CB1BA493B4D8}">
+  <dimension ref="A1:AH36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.38813800195252E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.2101653120851001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.38813800195252E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.47303983725358E-2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.6541395764879799E-2</v>
+      </c>
+      <c r="K2">
+        <v>5.0152559898413399E-2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
+        <v>3.36111641335336E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.2364067080746499E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>-1.6465660102482699E-2</v>
+      </c>
+      <c r="S2">
+        <v>2.3507950871008501E-3</v>
+      </c>
+      <c r="T2">
+        <f>S2-R2</f>
+        <v>1.881645518958355E-2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.15233691222112E-2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>6.4041076623729699E-3</v>
+      </c>
+      <c r="Y2">
+        <v>0.13823553700414201</v>
+      </c>
+      <c r="Z2">
+        <f>Y2-X2</f>
+        <v>0.13183142934176903</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>5.09295224550795E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>6.1592943440243204E-3</v>
+      </c>
+      <c r="AF2">
+        <v>2.9372162170314998E-2</v>
+      </c>
+      <c r="AG2">
+        <f>AF2-AE2</f>
+        <v>2.321286782629068E-2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>7.7451600883838099E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-5.2935359545095699E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0526816336062899E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
+        <v>6.34621758811586E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.2092369701991901E-2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-5.5594879463863101E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.0306287648427601E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>6.5901167112290701E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.05832432501603E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-6.8763623150008807E-2</v>
+      </c>
+      <c r="S3">
+        <v>-4.8700201340955498E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
+        <v>2.0063421809053308E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1.0834043466129799E-2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-7.3228879999999996E-2</v>
+      </c>
+      <c r="Y3">
+        <v>0.18677894607891399</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
+        <v>0.26000782607891398</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>4.9589501194189298E-2</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>-5.9981349990541603E-2</v>
+      </c>
+      <c r="AF3">
+        <v>-7.0259834048135399E-3</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
+        <v>5.2955366585728067E-2</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>7.3274128783119997E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-7.0039737351246897E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.5391211973626308E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>7.9578858548609521E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.01196024057029E-2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-8.0192025219124302E-2</v>
+      </c>
+      <c r="K4">
+        <v>-6.9276652578529798E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>7.3264359961271328E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.0090816810110601E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-9.7809437597303303E-2</v>
+      </c>
+      <c r="S4">
+        <v>-3.8268314295786698E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>5.9541123301516605E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.17074691842863E-2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-0.11629299999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.19203875712181601</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>0.30833175712181599</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4.1051274730545199E-2</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>-8.43192992256796E-2</v>
+      </c>
+      <c r="AF4">
+        <v>-4.6672069102005904E-3</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="4"/>
+        <v>7.9652092315479012E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>7.0791747381083701E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.100700417401538</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.2855250949217595E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.16355566835075558</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.04347001876165E-2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.12497700401166401</v>
+      </c>
+      <c r="K5">
+        <v>-6.6048074091839297E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.11837219660248008</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.22301514439904E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.169860566136951</v>
+      </c>
+      <c r="S5">
+        <v>-2.2704264223916502E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0.1471563019130345</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.2014164397004701E-2</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-0.240311</v>
+      </c>
+      <c r="Y5">
+        <v>0.26517819456476599</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.50548919456476593</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4.1608541934688999E-2</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>-0.13644605062597401</v>
+      </c>
+      <c r="AF5">
+        <v>7.7840332417282703E-3</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>0.14423008386770228</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>6.7222544155400403E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.18092696573678799</v>
+      </c>
+      <c r="D6">
+        <v>1.18524357561978E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.19277940149298578</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0034854494878899E-2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.213675844933406</v>
+      </c>
+      <c r="K6">
+        <v>-6.6086165350516798E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.14758967958288921</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.1927972156265501E-2</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-0.22266796624195201</v>
+      </c>
+      <c r="S6">
+        <v>-1.39311647968259E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.2087368014451261</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.3039423776422801E-2</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-0.32656079999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.21415856950057499</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.54071936950057498</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3.9536776357693398E-2</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>-0.198702148876719</v>
+      </c>
+      <c r="AF6">
+        <v>-2.19688889551947E-2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="4"/>
+        <v>0.1767332599215243</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>6.6686714503862701E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.233582863255441</v>
+      </c>
+      <c r="D7">
+        <v>-2.23810002099905E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.23134476323444195</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0042945227980301E-2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.27206710127142097</v>
+      </c>
+      <c r="K7">
+        <v>-7.8780880466949907E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.19328622080447105</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.2056369617617101E-2</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.26764427477209501</v>
+      </c>
+      <c r="S7">
+        <v>2.4495151536361601E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0.29213942630845663</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.4413328913534E-2</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-0.3854976</v>
+      </c>
+      <c r="Y7">
+        <v>0.23000896100475801</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.61550656100475798</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3.9272165766826898E-2</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>-0.24095902350704501</v>
+      </c>
+      <c r="AF7">
+        <v>-3.4205901015354402E-2</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>0.20675312249169062</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>6.5751490413726004E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>E2</f>
+        <v>1.38813800195252E-2</v>
+      </c>
+      <c r="E30">
+        <f>L2</f>
+        <v>3.36111641335336E-2</v>
+      </c>
+      <c r="F30">
+        <f>T2</f>
+        <v>1.881645518958355E-2</v>
+      </c>
+      <c r="G30">
+        <f>Z2</f>
+        <v>0.13183142934176903</v>
+      </c>
+      <c r="J30">
+        <f>E30-$D$30</f>
+        <v>1.97297841140084E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:M30" si="5">F30-$D$30</f>
+        <v>4.9350751700583499E-3</v>
+      </c>
+      <c r="L30">
+        <f>G30-$D$30</f>
+        <v>0.11795004932224383</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>-1.38813800195252E-2</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1.4699534724151199E-2</v>
+      </c>
+      <c r="Y30">
+        <v>1.23333082465765E-2</v>
+      </c>
+      <c r="Z30">
+        <v>1.15233691222112E-2</v>
+      </c>
+      <c r="AA30">
+        <v>5.0919823235610999E-2</v>
+      </c>
+      <c r="AB30">
+        <v>7.7559447014856498E-3</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D35" si="6">E3</f>
+        <v>6.34621758811586E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E35" si="7">L3</f>
+        <v>6.5901167112290701E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F35" si="8">T3</f>
+        <v>2.0063421809053308E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G35" si="9">Z3</f>
+        <v>0.26000782607891398</v>
+      </c>
+      <c r="J31">
+        <f>E31-$D$31</f>
+        <v>2.438991231132101E-3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:M31" si="10">F31-$D$31</f>
+        <v>-4.3398754072105292E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>0.19654565019775538</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>-6.34621758811586E-2</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>1.2253613767160901E-2</v>
+      </c>
+      <c r="Y31">
+        <v>1.12262255630663E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.15208763786351E-2</v>
+      </c>
+      <c r="AA31">
+        <v>4.9688426261210603E-2</v>
+      </c>
+      <c r="AB31">
+        <v>7.6025329214971203E-3</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>7.9578858548609521E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>7.3264359961271328E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>5.9541123301516605E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>0.30833175712181599</v>
+      </c>
+      <c r="J32">
+        <f>E32-$D32</f>
+        <v>-6.3144985873381937E-3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:M35" si="11">F32-$D32</f>
+        <v>-2.0037735247092917E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>0.22875289857320646</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="11"/>
+        <v>-7.9578858548609521E-2</v>
+      </c>
+      <c r="W32" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>1.0277503872742301E-2</v>
+      </c>
+      <c r="Y32">
+        <v>1.0784515707793599E-2</v>
+      </c>
+      <c r="Z32">
+        <v>1.2156463907706701E-2</v>
+      </c>
+      <c r="AA32">
+        <v>4.0977297242459E-2</v>
+      </c>
+      <c r="AB32">
+        <v>7.2799960954171503E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>0.16355566835075558</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="7"/>
+        <v>0.11837219660248008</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>0.1471563019130345</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>0.50548919456476593</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J35" si="12">E33-$D33</f>
+        <v>-4.51834717482755E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>-1.639936643772108E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="11"/>
+        <v>0.34193352621401035</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="11"/>
+        <v>-0.16355566835075558</v>
+      </c>
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>1.0635163744365E-2</v>
+      </c>
+      <c r="Y33">
+        <v>1.27492838718757E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.2056288737931801E-2</v>
+      </c>
+      <c r="AA33">
+        <v>4.1207540726657901E-2</v>
+      </c>
+      <c r="AB33">
+        <v>6.9034099203564301E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>0.19277940149298578</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>0.14758967958288921</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>0.2087368014451261</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>0.54071936950057498</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="12"/>
+        <v>-4.518972191009657E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>1.5957399952140322E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>0.3479399680075892</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="11"/>
+        <v>-0.19277940149298578</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>1.023333767201E-2</v>
+      </c>
+      <c r="Y34">
+        <v>1.25880441400072E-2</v>
+      </c>
+      <c r="Z34">
+        <v>1.3164101317403899E-2</v>
+      </c>
+      <c r="AA34">
+        <v>3.9201494451930101E-2</v>
+      </c>
+      <c r="AB34">
+        <v>6.8355801471664396E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>0.23134476323444195</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>0.19328622080447105</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>0.29213942630845663</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>0.61550656100475798</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="12"/>
+        <v>-3.8058542429970893E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>6.0794663074014682E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="11"/>
+        <v>0.384161797770316</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="11"/>
+        <v>-0.23134476323444195</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>1.02277072414738E-2</v>
+      </c>
+      <c r="Y35">
+        <v>1.26275243644847E-2</v>
+      </c>
+      <c r="Z35">
+        <v>1.43501733349208E-2</v>
+      </c>
+      <c r="AA35">
+        <v>3.8915444415642902E-2</v>
+      </c>
+      <c r="AB35">
+        <v>6.7346218779545898E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <f>SQRT(SUM(J30^2,J31^2,J32^2,J33^2,J34^2,J35^2)/5)</f>
+        <v>3.4546188470664548E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:M36" si="13">SQRT(SUM(K30^2,K31^2,K32^2,K33^2,K34^2,K35^2)/5)</f>
+        <v>3.6135540806391642E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="13"/>
+        <v>0.31318727301881621</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="13"/>
+        <v>0.15999230542271295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6DF9D-8B45-4E22-BDCD-A0004677D1E9}">
+  <dimension ref="A1:AH35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3847612777483699E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.2101653120851001E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>3.8254040343367303E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.4146732784307701E-2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.7524840545163799E-2</v>
+      </c>
+      <c r="K2">
+        <v>5.0152559898413399E-2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
+        <v>3.2627719353249596E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.19766266571249E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1.6371838536333502E-2</v>
+      </c>
+      <c r="S2">
+        <v>2.3507950871008501E-3</v>
+      </c>
+      <c r="T2">
+        <f>S2-R2</f>
+        <v>1.8722633623434352E-2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.1295956166508799E-2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3.6629089999999998E-3</v>
+      </c>
+      <c r="Y2">
+        <v>0.13823553700414201</v>
+      </c>
+      <c r="Z2">
+        <f>Y2-X2</f>
+        <v>0.13457262800414202</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>5.1020330406783401E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>6.1592943440243204E-3</v>
+      </c>
+      <c r="AF2">
+        <v>2.9372162170314998E-2</v>
+      </c>
+      <c r="AG2">
+        <f>AF2-AE2</f>
+        <v>2.321286782629068E-2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>7.70132213903949E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-5.8373515854795902E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.0526816336062899E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
+        <v>6.8900332190858796E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1973235321744701E-2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-5.5804011250850702E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.0306287648427601E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>6.6110298899278302E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.06421587221088E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-6.8778815980820099E-2</v>
+      </c>
+      <c r="S3">
+        <v>-4.8700201340955498E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
+        <v>2.00786146398646E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1.0821459984969599E-2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-7.2609019999999996E-2</v>
+      </c>
+      <c r="Y3">
+        <v>0.18677894607891399</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
+        <v>0.25938796607891401</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>4.9955037213805599E-2</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>-5.9981349990541603E-2</v>
+      </c>
+      <c r="AF3">
+        <v>-7.0259834048135399E-3</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
+        <v>5.2955366585728067E-2</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>7.3294300468886896E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-7.8858289596088496E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.5391211973626308E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>8.839741079345112E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0105892516481399E-2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-8.1145204210753399E-2</v>
+      </c>
+      <c r="K4">
+        <v>-6.9276652578529798E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>7.4217538952900425E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.01438034481387E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-9.7608818715772996E-2</v>
+      </c>
+      <c r="S4">
+        <v>-3.8268314295786698E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>5.9340504419986298E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.1684033897443101E-2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-0.1128021</v>
+      </c>
+      <c r="Y4">
+        <v>0.19203875712181601</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>0.30484085712181602</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4.0961893612320298E-2</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>-8.43192992256796E-2</v>
+      </c>
+      <c r="AF4">
+        <v>-4.6672069102005904E-3</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="4"/>
+        <v>7.9652092315479012E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>7.0858297974232699E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.125639812638417</v>
+      </c>
+      <c r="D5">
+        <v>6.2855250949217595E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.1884950635876346</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0476075261672199E-2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.12577739827791501</v>
+      </c>
+      <c r="K5">
+        <v>-6.6048074091839297E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.11917259086873108</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.22778573806177E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.170558523770138</v>
+      </c>
+      <c r="S5">
+        <v>-2.2704264223916502E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0.1478542595462215</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.2065505200462401E-2</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-0.2244775</v>
+      </c>
+      <c r="Y5">
+        <v>0.26517819456476599</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.48965569456476599</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4.1384099050639903E-2</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>-0.13644605062597401</v>
+      </c>
+      <c r="AF5">
+        <v>7.7840332417282703E-3</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>0.14423008386770228</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>6.7309959922203797E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.214647925201158</v>
+      </c>
+      <c r="D6">
+        <v>1.18524357561978E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.22650036095735579</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.00290905642026E-2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.214499576974885</v>
+      </c>
+      <c r="K6">
+        <v>-6.6086165350516798E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.14841341162436822</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.1958693834235701E-2</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-0.223386274818478</v>
+      </c>
+      <c r="S6">
+        <v>-1.39311647968259E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.2094551100216521</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.3081173436980099E-2</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-0.31026559999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.21415856950057499</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.52442416950057491</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3.8596253275695103E-2</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>-0.198702148876719</v>
+      </c>
+      <c r="AF6">
+        <v>-2.19688889551947E-2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="4"/>
+        <v>0.1767332599215243</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>6.6754383494060801E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.27591265621357702</v>
+      </c>
+      <c r="D7">
+        <v>-2.23810002099905E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.27367455619257797</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.00173531786346E-2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.272735702086919</v>
+      </c>
+      <c r="K7">
+        <v>-7.8780880466949907E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.19395482161996908</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.2089506364395399E-2</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.26822730623847102</v>
+      </c>
+      <c r="S7">
+        <v>2.4495151536361601E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0.29272245777483263</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.4462339848217E-2</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-0.37227120000000002</v>
+      </c>
+      <c r="Y7">
+        <v>0.23000896100475801</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.60228016100475801</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3.7372594693865203E-2</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>-0.24095902350704501</v>
+      </c>
+      <c r="AF7">
+        <v>-3.4205901015354402E-2</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>0.20675312249169062</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>6.5806587953987899E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>E2</f>
+        <v>3.8254040343367303E-2</v>
+      </c>
+      <c r="E30">
+        <f>L2</f>
+        <v>3.2627719353249596E-2</v>
+      </c>
+      <c r="F30">
+        <f>T2</f>
+        <v>1.8722633623434352E-2</v>
+      </c>
+      <c r="G30">
+        <f>Z2</f>
+        <v>0.13457262800414202</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1.4699534724151199E-2</v>
+      </c>
+      <c r="Y30">
+        <v>1.23333082465765E-2</v>
+      </c>
+      <c r="Z30">
+        <v>1.15233691222112E-2</v>
+      </c>
+      <c r="AA30">
+        <v>5.0919823235610999E-2</v>
+      </c>
+      <c r="AB30">
+        <v>7.7559447014856498E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D35" si="5">E3</f>
+        <v>6.8900332190858796E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E35" si="6">L3</f>
+        <v>6.6110298899278302E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F35" si="7">T3</f>
+        <v>2.00786146398646E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G35" si="8">Z3</f>
+        <v>0.25938796607891401</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>1.2253613767160901E-2</v>
+      </c>
+      <c r="Y31">
+        <v>1.12262255630663E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.15208763786351E-2</v>
+      </c>
+      <c r="AA31">
+        <v>4.9688426261210603E-2</v>
+      </c>
+      <c r="AB31">
+        <v>7.6025329214971203E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>8.839741079345112E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>7.4217538952900425E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>5.9340504419986298E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>0.30484085712181602</v>
+      </c>
+      <c r="W32" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>1.0277503872742301E-2</v>
+      </c>
+      <c r="Y32">
+        <v>1.0784515707793599E-2</v>
+      </c>
+      <c r="Z32">
+        <v>1.2156463907706701E-2</v>
+      </c>
+      <c r="AA32">
+        <v>4.0977297242459E-2</v>
+      </c>
+      <c r="AB32">
+        <v>7.2799960954171503E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>0.1884950635876346</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>0.11917259086873108</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>0.1478542595462215</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>0.48965569456476599</v>
+      </c>
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>1.0635163744365E-2</v>
+      </c>
+      <c r="Y33">
+        <v>1.27492838718757E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.2056288737931801E-2</v>
+      </c>
+      <c r="AA33">
+        <v>4.1207540726657901E-2</v>
+      </c>
+      <c r="AB33">
+        <v>6.9034099203564301E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>0.22650036095735579</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>0.14841341162436822</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>0.2094551100216521</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>0.52442416950057491</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>1.023333767201E-2</v>
+      </c>
+      <c r="Y34">
+        <v>1.25880441400072E-2</v>
+      </c>
+      <c r="Z34">
+        <v>1.3164101317403899E-2</v>
+      </c>
+      <c r="AA34">
+        <v>3.9201494451930101E-2</v>
+      </c>
+      <c r="AB34">
+        <v>6.8355801471664396E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>0.27367455619257797</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>0.19395482161996908</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>0.29272245777483263</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>0.60228016100475801</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>1.02277072414738E-2</v>
+      </c>
+      <c r="Y35">
+        <v>1.26275243644847E-2</v>
+      </c>
+      <c r="Z35">
+        <v>1.43501733349208E-2</v>
+      </c>
+      <c r="AA35">
+        <v>3.8915444415642902E-2</v>
+      </c>
+      <c r="AB35">
+        <v>6.7346218779545898E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E25188B-7F25-46FA-BD53-DECB39475093}">
+  <dimension ref="A1:AH36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3847612777483699E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.2101653120851001E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>3.8254040343367303E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.8158075762365999E-2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.20537696312473E-2</v>
+      </c>
+      <c r="K2">
+        <v>5.0152559898413399E-2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L7" si="0">K2-J2</f>
+        <v>3.8098790267166102E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.64107163606237E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1.6798313801884901E-2</v>
+      </c>
+      <c r="S2">
+        <v>2.3507950871008501E-3</v>
+      </c>
+      <c r="T2">
+        <f>S2-R2</f>
+        <v>1.9149108888985751E-2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.1512387864431199E-2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3.349149E-3</v>
+      </c>
+      <c r="Y2">
+        <v>0.13823553700414201</v>
+      </c>
+      <c r="Z2">
+        <f>Y2-X2</f>
+        <v>0.13488638800414202</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>5.1567591871591503E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>6.1592943440243204E-3</v>
+      </c>
+      <c r="AF2">
+        <v>2.9372162170314998E-2</v>
+      </c>
+      <c r="AG2">
+        <f>AF2-AE2</f>
+        <v>2.321286782629068E-2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>7.7396376338252403E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-5.8373515854795902E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.0526816336062899E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">D3-C3</f>
+        <v>6.8900332190858796E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.3597513329264699E-2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-7.1717119691841996E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.0306287648427601E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>8.2023407340269597E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.5645425123402602E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-6.7995627316234805E-2</v>
+      </c>
+      <c r="S3">
+        <v>-4.8700201340955498E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T7" si="2">S3-R3</f>
+        <v>1.9295425975279307E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1.0120255867390199E-2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-8.2429219999999997E-2</v>
+      </c>
+      <c r="Y3">
+        <v>0.18677894607891399</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z7" si="3">Y3-X3</f>
+        <v>0.26920816607891396</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>4.9083302743074403E-2</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>-5.9981349990541603E-2</v>
+      </c>
+      <c r="AF3">
+        <v>-7.0259834048135399E-3</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" si="4">AF3-AE3</f>
+        <v>5.2955366585728067E-2</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>7.3759885312294502E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-7.8858289596088496E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.5391211973626308E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>8.839741079345112E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1742535918643099E-2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-0.10216128319949699</v>
+      </c>
+      <c r="K4">
+        <v>-6.9276652578529798E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>9.5233617941644019E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.3628839186418501E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-0.10004405129364199</v>
+      </c>
+      <c r="S4">
+        <v>-3.8268314295786698E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>6.1775736997855296E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.1621840266459399E-2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-0.1110773</v>
+      </c>
+      <c r="Y4">
+        <v>0.19203875712181601</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>0.303116057121816</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4.0444067180843202E-2</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>-8.43192992256796E-2</v>
+      </c>
+      <c r="AF4">
+        <v>-4.6672069102005904E-3</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="4"/>
+        <v>7.9652092315479012E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>7.1487093535534301E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.125639812638417</v>
+      </c>
+      <c r="D5">
+        <v>6.2855250949217595E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.1884950635876346</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.2793556914926899E-2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.16612715798402899</v>
+      </c>
+      <c r="K5">
+        <v>-6.6048074091839297E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.15952235057484507</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.4290603320673801E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.176345005497823</v>
+      </c>
+      <c r="S5">
+        <v>-2.2704264223916502E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0.15364074127390651</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.2606559629047401E-2</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-0.18660450000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.26517819456476599</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.451782694564766</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4.0289484659342997E-2</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>-0.13644605062597401</v>
+      </c>
+      <c r="AF5">
+        <v>7.7840332417282703E-3</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>0.14423008386770228</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>6.7435580194039699E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.214647925201158</v>
+      </c>
+      <c r="D6">
+        <v>1.18524357561978E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.22650036095735579</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.1773713316064501E-2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.24409161009153099</v>
+      </c>
+      <c r="K6">
+        <v>-6.6086165350516798E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.17800544474101421</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.3461087246003801E-2</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-0.230143422195588</v>
+      </c>
+      <c r="S6">
+        <v>-1.39311647968259E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.2162122573987621</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.35825818408892E-2</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-0.26548749999999999</v>
+      </c>
+      <c r="Y6">
+        <v>0.21415856950057499</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.47964606950057498</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3.7943303452708597E-2</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>-0.198702148876719</v>
+      </c>
+      <c r="AF6">
+        <v>-2.19688889551947E-2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="4"/>
+        <v>0.1767332599215243</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>6.6895472748080102E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.27591265621357702</v>
+      </c>
+      <c r="D7">
+        <v>-2.23810002099905E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.27367455619257797</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.1305685022013401E-2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.29596702082437099</v>
+      </c>
+      <c r="K7">
+        <v>-7.8780880466949907E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.21718614035742106</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.31362786161725E-2</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.27591923940976798</v>
+      </c>
+      <c r="S7">
+        <v>2.4495151536361601E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0.30041439094612959</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.4893166199766999E-2</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-0.32096910000000001</v>
+      </c>
+      <c r="Y7">
+        <v>0.23000896100475801</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.55097806100475799</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3.7199069977476899E-2</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>-0.24095902350704501</v>
+      </c>
+      <c r="AF7">
+        <v>-3.4205901015354402E-2</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>0.20675312249169062</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>6.5967402982319403E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>E2</f>
+        <v>3.8254040343367303E-2</v>
+      </c>
+      <c r="E30">
+        <f>L2</f>
+        <v>3.8098790267166102E-2</v>
+      </c>
+      <c r="F30">
+        <f>T2</f>
+        <v>1.9149108888985751E-2</v>
+      </c>
+      <c r="G30">
+        <f>Z2</f>
+        <v>0.13488638800414202</v>
+      </c>
+      <c r="J30">
+        <f>E30-$D$30</f>
+        <v>-1.5525007620120074E-4</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:M30" si="5">F30-$D$30</f>
+        <v>-1.9104931454381552E-2</v>
+      </c>
+      <c r="L30">
+        <f>G30-$D$30</f>
+        <v>9.663234766077472E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>-3.8254040343367303E-2</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1.4699534724151199E-2</v>
+      </c>
+      <c r="Y30">
+        <v>1.23333082465765E-2</v>
+      </c>
+      <c r="Z30">
+        <v>1.15233691222112E-2</v>
+      </c>
+      <c r="AA30">
+        <v>5.0919823235610999E-2</v>
+      </c>
+      <c r="AB30">
+        <v>7.7559447014856498E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D35" si="6">E3</f>
+        <v>6.8900332190858796E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E35" si="7">L3</f>
+        <v>8.2023407340269597E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F35" si="8">T3</f>
+        <v>1.9295425975279307E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G35" si="9">Z3</f>
+        <v>0.26920816607891396</v>
+      </c>
+      <c r="J31">
+        <f>E31-$D$31</f>
+        <v>1.3123075149410801E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:M31" si="10">F31-$D$31</f>
+        <v>-4.9604906215579489E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>0.20030783388805518</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>-6.8900332190858796E-2</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>1.2253613767160901E-2</v>
+      </c>
+      <c r="Y31">
+        <v>1.12262255630663E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.15208763786351E-2</v>
+      </c>
+      <c r="AA31">
+        <v>4.9688426261210603E-2</v>
+      </c>
+      <c r="AB31">
+        <v>7.6025329214971203E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>8.839741079345112E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>9.5233617941644019E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>6.1775736997855296E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>0.303116057121816</v>
+      </c>
+      <c r="J32">
+        <f>E32-$D32</f>
+        <v>6.8362071481928993E-3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:M35" si="11">F32-$D32</f>
+        <v>-2.6621673795595824E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>0.21471864632836488</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="11"/>
+        <v>-8.839741079345112E-2</v>
+      </c>
+      <c r="W32" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>1.0277503872742301E-2</v>
+      </c>
+      <c r="Y32">
+        <v>1.0784515707793599E-2</v>
+      </c>
+      <c r="Z32">
+        <v>1.2156463907706701E-2</v>
+      </c>
+      <c r="AA32">
+        <v>4.0977297242459E-2</v>
+      </c>
+      <c r="AB32">
+        <v>7.2799960954171503E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>0.1884950635876346</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="7"/>
+        <v>0.15952235057484507</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>0.15364074127390651</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>0.451782694564766</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J35" si="12">E33-$D33</f>
+        <v>-2.897271301278953E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>-3.4854322313728092E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="11"/>
+        <v>0.26328763097713137</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="11"/>
+        <v>-0.1884950635876346</v>
+      </c>
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>1.0635163744365E-2</v>
+      </c>
+      <c r="Y33">
+        <v>1.27492838718757E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.2056288737931801E-2</v>
+      </c>
+      <c r="AA33">
+        <v>4.1207540726657901E-2</v>
+      </c>
+      <c r="AB33">
+        <v>6.9034099203564301E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>0.22650036095735579</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>0.17800544474101421</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>0.2162122573987621</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>0.47964606950057498</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="12"/>
+        <v>-4.8494916216341583E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>-1.0288103558593692E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>0.25314570854321916</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="11"/>
+        <v>-0.22650036095735579</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>1.023333767201E-2</v>
+      </c>
+      <c r="Y34">
+        <v>1.25880441400072E-2</v>
+      </c>
+      <c r="Z34">
+        <v>1.3164101317403899E-2</v>
+      </c>
+      <c r="AA34">
+        <v>3.9201494451930101E-2</v>
+      </c>
+      <c r="AB34">
+        <v>6.8355801471664396E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>0.27367455619257797</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>0.21718614035742106</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>0.30041439094612959</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>0.55097806100475799</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="12"/>
+        <v>-5.6488415835156902E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>2.6739834753551628E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="11"/>
+        <v>0.27730350481218002</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="11"/>
+        <v>-0.27367455619257797</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>1.02277072414738E-2</v>
+      </c>
+      <c r="Y35">
+        <v>1.26275243644847E-2</v>
+      </c>
+      <c r="Z35">
+        <v>1.43501733349208E-2</v>
+      </c>
+      <c r="AA35">
+        <v>3.8915444415642902E-2</v>
+      </c>
+      <c r="AB35">
+        <v>6.7346218779545898E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <f>SQRT(SUM(J30^2,J31^2,J32^2,J33^2,J34^2,J35^2)/5)</f>
+        <v>3.6334801647603103E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:M36" si="13">SQRT(SUM(K30^2,K31^2,K32^2,K33^2,K34^2,K35^2)/5)</f>
+        <v>3.3376777147115351E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="13"/>
+        <v>0.24733196161149909</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="13"/>
+        <v>0.18748615673244368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>